--- a/backend/public/PlantillaExcel.xlsx
+++ b/backend/public/PlantillaExcel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">Plantilla vehiculos</t>
   </si>
@@ -45,6 +45,24 @@
   <si>
     <t xml:space="preserve">La placa será el identificador en la base de datos</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ejemplo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNM-HG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#f0f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daño…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car</t>
+  </si>
 </sst>
 </file>
 
@@ -53,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -78,18 +96,26 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Cantarell Extra Bold"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Cantarell Extra Bold"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Cantarell Extra Bold"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +156,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5983B0"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -174,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,16 +239,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -303,17 +343,20 @@
   <dimension ref="A1:BG702"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="55.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="6" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="13.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="2" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="12" style="3" width="11.53"/>
   </cols>
   <sheetData>
@@ -349,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -417,12 +460,12 @@
       <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
     </row>
-    <row r="4" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+    <row r="4" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -478,15 +521,17 @@
       <c r="BF4" s="3"/>
       <c r="BG4" s="3"/>
     </row>
-    <row r="5" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+    <row r="5" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -539,15 +584,19 @@
       <c r="BF5" s="3"/>
       <c r="BG5" s="3"/>
     </row>
-    <row r="6" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+    <row r="6" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -600,15 +649,19 @@
       <c r="BF6" s="3"/>
       <c r="BG6" s="3"/>
     </row>
-    <row r="7" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+    <row r="7" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>2001</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -661,15 +714,19 @@
       <c r="BF7" s="3"/>
       <c r="BG7" s="3"/>
     </row>
-    <row r="8" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+    <row r="8" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -722,15 +779,19 @@
       <c r="BF8" s="3"/>
       <c r="BG8" s="3"/>
     </row>
-    <row r="9" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+    <row r="9" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -783,15 +844,19 @@
       <c r="BF9" s="3"/>
       <c r="BG9" s="3"/>
     </row>
-    <row r="10" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+    <row r="10" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -844,15 +909,15 @@
       <c r="BF10" s="3"/>
       <c r="BG10" s="3"/>
     </row>
-    <row r="11" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+    <row r="11" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -905,15 +970,15 @@
       <c r="BF11" s="3"/>
       <c r="BG11" s="3"/>
     </row>
-    <row r="12" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+    <row r="12" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -966,12 +1031,12 @@
       <c r="BF12" s="3"/>
       <c r="BG12" s="3"/>
     </row>
-    <row r="13" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+    <row r="13" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1027,12 +1092,12 @@
       <c r="BF13" s="3"/>
       <c r="BG13" s="3"/>
     </row>
-    <row r="14" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+    <row r="14" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1088,12 +1153,12 @@
       <c r="BF14" s="3"/>
       <c r="BG14" s="3"/>
     </row>
-    <row r="15" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+    <row r="15" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1149,12 +1214,12 @@
       <c r="BF15" s="3"/>
       <c r="BG15" s="3"/>
     </row>
-    <row r="16" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+    <row r="16" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1210,12 +1275,12 @@
       <c r="BF16" s="3"/>
       <c r="BG16" s="3"/>
     </row>
-    <row r="17" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+    <row r="17" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1271,12 +1336,12 @@
       <c r="BF17" s="3"/>
       <c r="BG17" s="3"/>
     </row>
-    <row r="18" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+    <row r="18" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1332,12 +1397,12 @@
       <c r="BF18" s="3"/>
       <c r="BG18" s="3"/>
     </row>
-    <row r="19" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+    <row r="19" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1393,12 +1458,12 @@
       <c r="BF19" s="3"/>
       <c r="BG19" s="3"/>
     </row>
-    <row r="20" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+    <row r="20" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1454,12 +1519,12 @@
       <c r="BF20" s="3"/>
       <c r="BG20" s="3"/>
     </row>
-    <row r="21" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+    <row r="21" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1515,12 +1580,12 @@
       <c r="BF21" s="3"/>
       <c r="BG21" s="3"/>
     </row>
-    <row r="22" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+    <row r="22" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1576,12 +1641,12 @@
       <c r="BF22" s="3"/>
       <c r="BG22" s="3"/>
     </row>
-    <row r="23" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+    <row r="23" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1637,12 +1702,12 @@
       <c r="BF23" s="3"/>
       <c r="BG23" s="3"/>
     </row>
-    <row r="24" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+    <row r="24" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1698,12 +1763,12 @@
       <c r="BF24" s="3"/>
       <c r="BG24" s="3"/>
     </row>
-    <row r="25" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+    <row r="25" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1759,12 +1824,12 @@
       <c r="BF25" s="3"/>
       <c r="BG25" s="3"/>
     </row>
-    <row r="26" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+    <row r="26" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1820,12 +1885,12 @@
       <c r="BF26" s="3"/>
       <c r="BG26" s="3"/>
     </row>
-    <row r="27" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+    <row r="27" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1881,12 +1946,12 @@
       <c r="BF27" s="3"/>
       <c r="BG27" s="3"/>
     </row>
-    <row r="28" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+    <row r="28" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1942,12 +2007,12 @@
       <c r="BF28" s="3"/>
       <c r="BG28" s="3"/>
     </row>
-    <row r="29" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+    <row r="29" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2003,12 +2068,12 @@
       <c r="BF29" s="3"/>
       <c r="BG29" s="3"/>
     </row>
-    <row r="30" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+    <row r="30" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2064,12 +2129,12 @@
       <c r="BF30" s="3"/>
       <c r="BG30" s="3"/>
     </row>
-    <row r="31" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+    <row r="31" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2125,12 +2190,12 @@
       <c r="BF31" s="3"/>
       <c r="BG31" s="3"/>
     </row>
-    <row r="32" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+    <row r="32" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2186,12 +2251,12 @@
       <c r="BF32" s="3"/>
       <c r="BG32" s="3"/>
     </row>
-    <row r="33" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+    <row r="33" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2247,12 +2312,12 @@
       <c r="BF33" s="3"/>
       <c r="BG33" s="3"/>
     </row>
-    <row r="34" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+    <row r="34" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2308,12 +2373,12 @@
       <c r="BF34" s="3"/>
       <c r="BG34" s="3"/>
     </row>
-    <row r="35" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+    <row r="35" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2369,12 +2434,12 @@
       <c r="BF35" s="3"/>
       <c r="BG35" s="3"/>
     </row>
-    <row r="36" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+    <row r="36" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2430,12 +2495,12 @@
       <c r="BF36" s="3"/>
       <c r="BG36" s="3"/>
     </row>
-    <row r="37" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+    <row r="37" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2491,12 +2556,12 @@
       <c r="BF37" s="3"/>
       <c r="BG37" s="3"/>
     </row>
-    <row r="38" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+    <row r="38" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2552,12 +2617,12 @@
       <c r="BF38" s="3"/>
       <c r="BG38" s="3"/>
     </row>
-    <row r="39" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+    <row r="39" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2613,12 +2678,12 @@
       <c r="BF39" s="3"/>
       <c r="BG39" s="3"/>
     </row>
-    <row r="40" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+    <row r="40" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2674,12 +2739,12 @@
       <c r="BF40" s="3"/>
       <c r="BG40" s="3"/>
     </row>
-    <row r="41" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+    <row r="41" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2735,12 +2800,12 @@
       <c r="BF41" s="3"/>
       <c r="BG41" s="3"/>
     </row>
-    <row r="42" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+    <row r="42" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2796,12 +2861,12 @@
       <c r="BF42" s="3"/>
       <c r="BG42" s="3"/>
     </row>
-    <row r="43" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+    <row r="43" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2857,12 +2922,12 @@
       <c r="BF43" s="3"/>
       <c r="BG43" s="3"/>
     </row>
-    <row r="44" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+    <row r="44" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2918,12 +2983,12 @@
       <c r="BF44" s="3"/>
       <c r="BG44" s="3"/>
     </row>
-    <row r="45" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+    <row r="45" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2979,12 +3044,12 @@
       <c r="BF45" s="3"/>
       <c r="BG45" s="3"/>
     </row>
-    <row r="46" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+    <row r="46" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -3040,12 +3105,12 @@
       <c r="BF46" s="3"/>
       <c r="BG46" s="3"/>
     </row>
-    <row r="47" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+    <row r="47" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -3101,12 +3166,12 @@
       <c r="BF47" s="3"/>
       <c r="BG47" s="3"/>
     </row>
-    <row r="48" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+    <row r="48" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -3162,12 +3227,12 @@
       <c r="BF48" s="3"/>
       <c r="BG48" s="3"/>
     </row>
-    <row r="49" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+    <row r="49" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -3223,12 +3288,12 @@
       <c r="BF49" s="3"/>
       <c r="BG49" s="3"/>
     </row>
-    <row r="50" s="10" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+    <row r="50" s="9" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -3284,7 +3349,7 @@
       <c r="BF50" s="3"/>
       <c r="BG50" s="3"/>
     </row>
-    <row r="51" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3345,7 +3410,7 @@
       <c r="BF51" s="3"/>
       <c r="BG51" s="3"/>
     </row>
-    <row r="52" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3406,7 +3471,7 @@
       <c r="BF52" s="3"/>
       <c r="BG52" s="3"/>
     </row>
-    <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3467,7 +3532,7 @@
       <c r="BF53" s="3"/>
       <c r="BG53" s="3"/>
     </row>
-    <row r="54" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3528,7 +3593,7 @@
       <c r="BF54" s="3"/>
       <c r="BG54" s="3"/>
     </row>
-    <row r="55" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3589,7 +3654,7 @@
       <c r="BF55" s="3"/>
       <c r="BG55" s="3"/>
     </row>
-    <row r="56" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3650,7 +3715,7 @@
       <c r="BF56" s="3"/>
       <c r="BG56" s="3"/>
     </row>
-    <row r="57" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3711,7 +3776,7 @@
       <c r="BF57" s="3"/>
       <c r="BG57" s="3"/>
     </row>
-    <row r="58" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3772,7 +3837,7 @@
       <c r="BF58" s="3"/>
       <c r="BG58" s="3"/>
     </row>
-    <row r="59" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3833,7 +3898,7 @@
       <c r="BF59" s="3"/>
       <c r="BG59" s="3"/>
     </row>
-    <row r="60" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3894,7 +3959,7 @@
       <c r="BF60" s="3"/>
       <c r="BG60" s="3"/>
     </row>
-    <row r="61" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3955,7 +4020,7 @@
       <c r="BF61" s="3"/>
       <c r="BG61" s="3"/>
     </row>
-    <row r="62" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4016,7 +4081,7 @@
       <c r="BF62" s="3"/>
       <c r="BG62" s="3"/>
     </row>
-    <row r="63" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4077,7 +4142,7 @@
       <c r="BF63" s="3"/>
       <c r="BG63" s="3"/>
     </row>
-    <row r="64" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4138,7 +4203,7 @@
       <c r="BF64" s="3"/>
       <c r="BG64" s="3"/>
     </row>
-    <row r="65" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4199,7 +4264,7 @@
       <c r="BF65" s="3"/>
       <c r="BG65" s="3"/>
     </row>
-    <row r="66" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4260,7 +4325,7 @@
       <c r="BF66" s="3"/>
       <c r="BG66" s="3"/>
     </row>
-    <row r="67" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4321,7 +4386,7 @@
       <c r="BF67" s="3"/>
       <c r="BG67" s="3"/>
     </row>
-    <row r="68" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4382,7 +4447,7 @@
       <c r="BF68" s="3"/>
       <c r="BG68" s="3"/>
     </row>
-    <row r="69" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4443,7 +4508,7 @@
       <c r="BF69" s="3"/>
       <c r="BG69" s="3"/>
     </row>
-    <row r="70" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4504,7 +4569,7 @@
       <c r="BF70" s="3"/>
       <c r="BG70" s="3"/>
     </row>
-    <row r="71" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4565,7 +4630,7 @@
       <c r="BF71" s="3"/>
       <c r="BG71" s="3"/>
     </row>
-    <row r="72" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4626,7 +4691,7 @@
       <c r="BF72" s="3"/>
       <c r="BG72" s="3"/>
     </row>
-    <row r="73" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4687,7 +4752,7 @@
       <c r="BF73" s="3"/>
       <c r="BG73" s="3"/>
     </row>
-    <row r="74" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4748,7 +4813,7 @@
       <c r="BF74" s="3"/>
       <c r="BG74" s="3"/>
     </row>
-    <row r="75" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4809,7 +4874,7 @@
       <c r="BF75" s="3"/>
       <c r="BG75" s="3"/>
     </row>
-    <row r="76" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4870,7 +4935,7 @@
       <c r="BF76" s="3"/>
       <c r="BG76" s="3"/>
     </row>
-    <row r="77" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4931,7 +4996,7 @@
       <c r="BF77" s="3"/>
       <c r="BG77" s="3"/>
     </row>
-    <row r="78" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4992,7 +5057,7 @@
       <c r="BF78" s="3"/>
       <c r="BG78" s="3"/>
     </row>
-    <row r="79" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5053,7 +5118,7 @@
       <c r="BF79" s="3"/>
       <c r="BG79" s="3"/>
     </row>
-    <row r="80" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5114,7 +5179,7 @@
       <c r="BF80" s="3"/>
       <c r="BG80" s="3"/>
     </row>
-    <row r="81" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5175,7 +5240,7 @@
       <c r="BF81" s="3"/>
       <c r="BG81" s="3"/>
     </row>
-    <row r="82" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5236,7 +5301,7 @@
       <c r="BF82" s="3"/>
       <c r="BG82" s="3"/>
     </row>
-    <row r="83" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5297,7 +5362,7 @@
       <c r="BF83" s="3"/>
       <c r="BG83" s="3"/>
     </row>
-    <row r="84" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5358,7 +5423,7 @@
       <c r="BF84" s="3"/>
       <c r="BG84" s="3"/>
     </row>
-    <row r="85" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5419,7 +5484,7 @@
       <c r="BF85" s="3"/>
       <c r="BG85" s="3"/>
     </row>
-    <row r="86" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5480,7 +5545,7 @@
       <c r="BF86" s="3"/>
       <c r="BG86" s="3"/>
     </row>
-    <row r="87" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5541,7 +5606,7 @@
       <c r="BF87" s="3"/>
       <c r="BG87" s="3"/>
     </row>
-    <row r="88" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5602,7 +5667,7 @@
       <c r="BF88" s="3"/>
       <c r="BG88" s="3"/>
     </row>
-    <row r="89" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5663,7 +5728,7 @@
       <c r="BF89" s="3"/>
       <c r="BG89" s="3"/>
     </row>
-    <row r="90" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5724,7 +5789,7 @@
       <c r="BF90" s="3"/>
       <c r="BG90" s="3"/>
     </row>
-    <row r="91" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5785,7 +5850,7 @@
       <c r="BF91" s="3"/>
       <c r="BG91" s="3"/>
     </row>
-    <row r="92" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5846,7 +5911,7 @@
       <c r="BF92" s="3"/>
       <c r="BG92" s="3"/>
     </row>
-    <row r="93" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5907,7 +5972,7 @@
       <c r="BF93" s="3"/>
       <c r="BG93" s="3"/>
     </row>
-    <row r="94" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5968,7 +6033,7 @@
       <c r="BF94" s="3"/>
       <c r="BG94" s="3"/>
     </row>
-    <row r="95" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6029,7 +6094,7 @@
       <c r="BF95" s="3"/>
       <c r="BG95" s="3"/>
     </row>
-    <row r="96" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6090,7 +6155,7 @@
       <c r="BF96" s="3"/>
       <c r="BG96" s="3"/>
     </row>
-    <row r="97" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6151,7 +6216,7 @@
       <c r="BF97" s="3"/>
       <c r="BG97" s="3"/>
     </row>
-    <row r="98" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6212,7 +6277,7 @@
       <c r="BF98" s="3"/>
       <c r="BG98" s="3"/>
     </row>
-    <row r="99" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6273,7 +6338,7 @@
       <c r="BF99" s="3"/>
       <c r="BG99" s="3"/>
     </row>
-    <row r="100" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6334,7 +6399,7 @@
       <c r="BF100" s="3"/>
       <c r="BG100" s="3"/>
     </row>
-    <row r="101" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6395,7 +6460,7 @@
       <c r="BF101" s="3"/>
       <c r="BG101" s="3"/>
     </row>
-    <row r="102" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6456,7 +6521,7 @@
       <c r="BF102" s="3"/>
       <c r="BG102" s="3"/>
     </row>
-    <row r="103" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6517,7 +6582,7 @@
       <c r="BF103" s="3"/>
       <c r="BG103" s="3"/>
     </row>
-    <row r="104" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6578,7 +6643,7 @@
       <c r="BF104" s="3"/>
       <c r="BG104" s="3"/>
     </row>
-    <row r="105" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6639,7 +6704,7 @@
       <c r="BF105" s="3"/>
       <c r="BG105" s="3"/>
     </row>
-    <row r="106" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6700,7 +6765,7 @@
       <c r="BF106" s="3"/>
       <c r="BG106" s="3"/>
     </row>
-    <row r="107" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6761,7 +6826,7 @@
       <c r="BF107" s="3"/>
       <c r="BG107" s="3"/>
     </row>
-    <row r="108" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6822,7 +6887,7 @@
       <c r="BF108" s="3"/>
       <c r="BG108" s="3"/>
     </row>
-    <row r="109" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6883,7 +6948,7 @@
       <c r="BF109" s="3"/>
       <c r="BG109" s="3"/>
     </row>
-    <row r="110" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6944,7 +7009,7 @@
       <c r="BF110" s="3"/>
       <c r="BG110" s="3"/>
     </row>
-    <row r="111" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7005,7 +7070,7 @@
       <c r="BF111" s="3"/>
       <c r="BG111" s="3"/>
     </row>
-    <row r="112" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7066,7 +7131,7 @@
       <c r="BF112" s="3"/>
       <c r="BG112" s="3"/>
     </row>
-    <row r="113" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7127,7 +7192,7 @@
       <c r="BF113" s="3"/>
       <c r="BG113" s="3"/>
     </row>
-    <row r="114" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7188,7 +7253,7 @@
       <c r="BF114" s="3"/>
       <c r="BG114" s="3"/>
     </row>
-    <row r="115" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7249,7 +7314,7 @@
       <c r="BF115" s="3"/>
       <c r="BG115" s="3"/>
     </row>
-    <row r="116" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7310,7 +7375,7 @@
       <c r="BF116" s="3"/>
       <c r="BG116" s="3"/>
     </row>
-    <row r="117" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7371,7 +7436,7 @@
       <c r="BF117" s="3"/>
       <c r="BG117" s="3"/>
     </row>
-    <row r="118" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7432,7 +7497,7 @@
       <c r="BF118" s="3"/>
       <c r="BG118" s="3"/>
     </row>
-    <row r="119" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7493,7 +7558,7 @@
       <c r="BF119" s="3"/>
       <c r="BG119" s="3"/>
     </row>
-    <row r="120" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7554,7 +7619,7 @@
       <c r="BF120" s="3"/>
       <c r="BG120" s="3"/>
     </row>
-    <row r="121" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7615,7 +7680,7 @@
       <c r="BF121" s="3"/>
       <c r="BG121" s="3"/>
     </row>
-    <row r="122" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7676,7 +7741,7 @@
       <c r="BF122" s="3"/>
       <c r="BG122" s="3"/>
     </row>
-    <row r="123" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7737,7 +7802,7 @@
       <c r="BF123" s="3"/>
       <c r="BG123" s="3"/>
     </row>
-    <row r="124" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7798,7 +7863,7 @@
       <c r="BF124" s="3"/>
       <c r="BG124" s="3"/>
     </row>
-    <row r="125" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7859,7 +7924,7 @@
       <c r="BF125" s="3"/>
       <c r="BG125" s="3"/>
     </row>
-    <row r="126" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7920,7 +7985,7 @@
       <c r="BF126" s="3"/>
       <c r="BG126" s="3"/>
     </row>
-    <row r="127" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7981,7 +8046,7 @@
       <c r="BF127" s="3"/>
       <c r="BG127" s="3"/>
     </row>
-    <row r="128" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8042,7 +8107,7 @@
       <c r="BF128" s="3"/>
       <c r="BG128" s="3"/>
     </row>
-    <row r="129" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8103,7 +8168,7 @@
       <c r="BF129" s="3"/>
       <c r="BG129" s="3"/>
     </row>
-    <row r="130" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8164,7 +8229,7 @@
       <c r="BF130" s="3"/>
       <c r="BG130" s="3"/>
     </row>
-    <row r="131" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8225,7 +8290,7 @@
       <c r="BF131" s="3"/>
       <c r="BG131" s="3"/>
     </row>
-    <row r="132" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8286,7 +8351,7 @@
       <c r="BF132" s="3"/>
       <c r="BG132" s="3"/>
     </row>
-    <row r="133" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8347,7 +8412,7 @@
       <c r="BF133" s="3"/>
       <c r="BG133" s="3"/>
     </row>
-    <row r="134" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8408,7 +8473,7 @@
       <c r="BF134" s="3"/>
       <c r="BG134" s="3"/>
     </row>
-    <row r="135" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8469,7 +8534,7 @@
       <c r="BF135" s="3"/>
       <c r="BG135" s="3"/>
     </row>
-    <row r="136" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8530,7 +8595,7 @@
       <c r="BF136" s="3"/>
       <c r="BG136" s="3"/>
     </row>
-    <row r="137" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8591,7 +8656,7 @@
       <c r="BF137" s="3"/>
       <c r="BG137" s="3"/>
     </row>
-    <row r="138" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8652,7 +8717,7 @@
       <c r="BF138" s="3"/>
       <c r="BG138" s="3"/>
     </row>
-    <row r="139" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8713,7 +8778,7 @@
       <c r="BF139" s="3"/>
       <c r="BG139" s="3"/>
     </row>
-    <row r="140" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8774,7 +8839,7 @@
       <c r="BF140" s="3"/>
       <c r="BG140" s="3"/>
     </row>
-    <row r="141" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8835,7 +8900,7 @@
       <c r="BF141" s="3"/>
       <c r="BG141" s="3"/>
     </row>
-    <row r="142" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8896,7 +8961,7 @@
       <c r="BF142" s="3"/>
       <c r="BG142" s="3"/>
     </row>
-    <row r="143" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8957,7 +9022,7 @@
       <c r="BF143" s="3"/>
       <c r="BG143" s="3"/>
     </row>
-    <row r="144" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9018,7 +9083,7 @@
       <c r="BF144" s="3"/>
       <c r="BG144" s="3"/>
     </row>
-    <row r="145" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9079,7 +9144,7 @@
       <c r="BF145" s="3"/>
       <c r="BG145" s="3"/>
     </row>
-    <row r="146" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9140,7 +9205,7 @@
       <c r="BF146" s="3"/>
       <c r="BG146" s="3"/>
     </row>
-    <row r="147" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -9201,7 +9266,7 @@
       <c r="BF147" s="3"/>
       <c r="BG147" s="3"/>
     </row>
-    <row r="148" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9262,7 +9327,7 @@
       <c r="BF148" s="3"/>
       <c r="BG148" s="3"/>
     </row>
-    <row r="149" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9323,7 +9388,7 @@
       <c r="BF149" s="3"/>
       <c r="BG149" s="3"/>
     </row>
-    <row r="150" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9384,7 +9449,7 @@
       <c r="BF150" s="3"/>
       <c r="BG150" s="3"/>
     </row>
-    <row r="151" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9445,7 +9510,7 @@
       <c r="BF151" s="3"/>
       <c r="BG151" s="3"/>
     </row>
-    <row r="152" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9506,7 +9571,7 @@
       <c r="BF152" s="3"/>
       <c r="BG152" s="3"/>
     </row>
-    <row r="153" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9567,7 +9632,7 @@
       <c r="BF153" s="3"/>
       <c r="BG153" s="3"/>
     </row>
-    <row r="154" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -9628,7 +9693,7 @@
       <c r="BF154" s="3"/>
       <c r="BG154" s="3"/>
     </row>
-    <row r="155" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9689,7 +9754,7 @@
       <c r="BF155" s="3"/>
       <c r="BG155" s="3"/>
     </row>
-    <row r="156" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -9750,7 +9815,7 @@
       <c r="BF156" s="3"/>
       <c r="BG156" s="3"/>
     </row>
-    <row r="157" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9811,7 +9876,7 @@
       <c r="BF157" s="3"/>
       <c r="BG157" s="3"/>
     </row>
-    <row r="158" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9872,7 +9937,7 @@
       <c r="BF158" s="3"/>
       <c r="BG158" s="3"/>
     </row>
-    <row r="159" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9933,7 +9998,7 @@
       <c r="BF159" s="3"/>
       <c r="BG159" s="3"/>
     </row>
-    <row r="160" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -9994,7 +10059,7 @@
       <c r="BF160" s="3"/>
       <c r="BG160" s="3"/>
     </row>
-    <row r="161" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10055,7 +10120,7 @@
       <c r="BF161" s="3"/>
       <c r="BG161" s="3"/>
     </row>
-    <row r="162" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -10116,7 +10181,7 @@
       <c r="BF162" s="3"/>
       <c r="BG162" s="3"/>
     </row>
-    <row r="163" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -10177,7 +10242,7 @@
       <c r="BF163" s="3"/>
       <c r="BG163" s="3"/>
     </row>
-    <row r="164" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10238,7 +10303,7 @@
       <c r="BF164" s="3"/>
       <c r="BG164" s="3"/>
     </row>
-    <row r="165" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -10299,7 +10364,7 @@
       <c r="BF165" s="3"/>
       <c r="BG165" s="3"/>
     </row>
-    <row r="166" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10360,7 +10425,7 @@
       <c r="BF166" s="3"/>
       <c r="BG166" s="3"/>
     </row>
-    <row r="167" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -10421,7 +10486,7 @@
       <c r="BF167" s="3"/>
       <c r="BG167" s="3"/>
     </row>
-    <row r="168" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10482,7 +10547,7 @@
       <c r="BF168" s="3"/>
       <c r="BG168" s="3"/>
     </row>
-    <row r="169" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10543,7 +10608,7 @@
       <c r="BF169" s="3"/>
       <c r="BG169" s="3"/>
     </row>
-    <row r="170" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -10604,7 +10669,7 @@
       <c r="BF170" s="3"/>
       <c r="BG170" s="3"/>
     </row>
-    <row r="171" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -10665,7 +10730,7 @@
       <c r="BF171" s="3"/>
       <c r="BG171" s="3"/>
     </row>
-    <row r="172" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10726,7 +10791,7 @@
       <c r="BF172" s="3"/>
       <c r="BG172" s="3"/>
     </row>
-    <row r="173" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -10787,7 +10852,7 @@
       <c r="BF173" s="3"/>
       <c r="BG173" s="3"/>
     </row>
-    <row r="174" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10848,7 +10913,7 @@
       <c r="BF174" s="3"/>
       <c r="BG174" s="3"/>
     </row>
-    <row r="175" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10909,7 +10974,7 @@
       <c r="BF175" s="3"/>
       <c r="BG175" s="3"/>
     </row>
-    <row r="176" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10970,7 +11035,7 @@
       <c r="BF176" s="3"/>
       <c r="BG176" s="3"/>
     </row>
-    <row r="177" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -11031,7 +11096,7 @@
       <c r="BF177" s="3"/>
       <c r="BG177" s="3"/>
     </row>
-    <row r="178" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -11092,7 +11157,7 @@
       <c r="BF178" s="3"/>
       <c r="BG178" s="3"/>
     </row>
-    <row r="179" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -11153,7 +11218,7 @@
       <c r="BF179" s="3"/>
       <c r="BG179" s="3"/>
     </row>
-    <row r="180" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -11214,7 +11279,7 @@
       <c r="BF180" s="3"/>
       <c r="BG180" s="3"/>
     </row>
-    <row r="181" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -11275,7 +11340,7 @@
       <c r="BF181" s="3"/>
       <c r="BG181" s="3"/>
     </row>
-    <row r="182" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -11336,7 +11401,7 @@
       <c r="BF182" s="3"/>
       <c r="BG182" s="3"/>
     </row>
-    <row r="183" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -11397,7 +11462,7 @@
       <c r="BF183" s="3"/>
       <c r="BG183" s="3"/>
     </row>
-    <row r="184" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -11458,7 +11523,7 @@
       <c r="BF184" s="3"/>
       <c r="BG184" s="3"/>
     </row>
-    <row r="185" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -11519,7 +11584,7 @@
       <c r="BF185" s="3"/>
       <c r="BG185" s="3"/>
     </row>
-    <row r="186" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -11580,7 +11645,7 @@
       <c r="BF186" s="3"/>
       <c r="BG186" s="3"/>
     </row>
-    <row r="187" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -11641,7 +11706,7 @@
       <c r="BF187" s="3"/>
       <c r="BG187" s="3"/>
     </row>
-    <row r="188" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -11702,7 +11767,7 @@
       <c r="BF188" s="3"/>
       <c r="BG188" s="3"/>
     </row>
-    <row r="189" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -11763,7 +11828,7 @@
       <c r="BF189" s="3"/>
       <c r="BG189" s="3"/>
     </row>
-    <row r="190" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -11824,7 +11889,7 @@
       <c r="BF190" s="3"/>
       <c r="BG190" s="3"/>
     </row>
-    <row r="191" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -11885,7 +11950,7 @@
       <c r="BF191" s="3"/>
       <c r="BG191" s="3"/>
     </row>
-    <row r="192" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -11946,7 +12011,7 @@
       <c r="BF192" s="3"/>
       <c r="BG192" s="3"/>
     </row>
-    <row r="193" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -12007,7 +12072,7 @@
       <c r="BF193" s="3"/>
       <c r="BG193" s="3"/>
     </row>
-    <row r="194" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -12068,7 +12133,7 @@
       <c r="BF194" s="3"/>
       <c r="BG194" s="3"/>
     </row>
-    <row r="195" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -12129,7 +12194,7 @@
       <c r="BF195" s="3"/>
       <c r="BG195" s="3"/>
     </row>
-    <row r="196" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -12190,7 +12255,7 @@
       <c r="BF196" s="3"/>
       <c r="BG196" s="3"/>
     </row>
-    <row r="197" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -12251,7 +12316,7 @@
       <c r="BF197" s="3"/>
       <c r="BG197" s="3"/>
     </row>
-    <row r="198" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -12312,7 +12377,7 @@
       <c r="BF198" s="3"/>
       <c r="BG198" s="3"/>
     </row>
-    <row r="199" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -12373,7 +12438,7 @@
       <c r="BF199" s="3"/>
       <c r="BG199" s="3"/>
     </row>
-    <row r="200" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -12434,7 +12499,7 @@
       <c r="BF200" s="3"/>
       <c r="BG200" s="3"/>
     </row>
-    <row r="201" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -12495,7 +12560,7 @@
       <c r="BF201" s="3"/>
       <c r="BG201" s="3"/>
     </row>
-    <row r="202" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -12556,7 +12621,7 @@
       <c r="BF202" s="3"/>
       <c r="BG202" s="3"/>
     </row>
-    <row r="203" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -12617,7 +12682,7 @@
       <c r="BF203" s="3"/>
       <c r="BG203" s="3"/>
     </row>
-    <row r="204" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -12678,7 +12743,7 @@
       <c r="BF204" s="3"/>
       <c r="BG204" s="3"/>
     </row>
-    <row r="205" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -12739,7 +12804,7 @@
       <c r="BF205" s="3"/>
       <c r="BG205" s="3"/>
     </row>
-    <row r="206" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -12800,7 +12865,7 @@
       <c r="BF206" s="3"/>
       <c r="BG206" s="3"/>
     </row>
-    <row r="207" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -12861,7 +12926,7 @@
       <c r="BF207" s="3"/>
       <c r="BG207" s="3"/>
     </row>
-    <row r="208" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -12922,7 +12987,7 @@
       <c r="BF208" s="3"/>
       <c r="BG208" s="3"/>
     </row>
-    <row r="209" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -12983,7 +13048,7 @@
       <c r="BF209" s="3"/>
       <c r="BG209" s="3"/>
     </row>
-    <row r="210" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -13044,7 +13109,7 @@
       <c r="BF210" s="3"/>
       <c r="BG210" s="3"/>
     </row>
-    <row r="211" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -13105,7 +13170,7 @@
       <c r="BF211" s="3"/>
       <c r="BG211" s="3"/>
     </row>
-    <row r="212" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -13166,7 +13231,7 @@
       <c r="BF212" s="3"/>
       <c r="BG212" s="3"/>
     </row>
-    <row r="213" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -13227,7 +13292,7 @@
       <c r="BF213" s="3"/>
       <c r="BG213" s="3"/>
     </row>
-    <row r="214" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -13288,7 +13353,7 @@
       <c r="BF214" s="3"/>
       <c r="BG214" s="3"/>
     </row>
-    <row r="215" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -13349,7 +13414,7 @@
       <c r="BF215" s="3"/>
       <c r="BG215" s="3"/>
     </row>
-    <row r="216" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -13410,7 +13475,7 @@
       <c r="BF216" s="3"/>
       <c r="BG216" s="3"/>
     </row>
-    <row r="217" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -13471,7 +13536,7 @@
       <c r="BF217" s="3"/>
       <c r="BG217" s="3"/>
     </row>
-    <row r="218" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -13532,7 +13597,7 @@
       <c r="BF218" s="3"/>
       <c r="BG218" s="3"/>
     </row>
-    <row r="219" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -13593,7 +13658,7 @@
       <c r="BF219" s="3"/>
       <c r="BG219" s="3"/>
     </row>
-    <row r="220" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -13654,7 +13719,7 @@
       <c r="BF220" s="3"/>
       <c r="BG220" s="3"/>
     </row>
-    <row r="221" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -13715,7 +13780,7 @@
       <c r="BF221" s="3"/>
       <c r="BG221" s="3"/>
     </row>
-    <row r="222" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -13776,7 +13841,7 @@
       <c r="BF222" s="3"/>
       <c r="BG222" s="3"/>
     </row>
-    <row r="223" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -13837,7 +13902,7 @@
       <c r="BF223" s="3"/>
       <c r="BG223" s="3"/>
     </row>
-    <row r="224" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -13898,7 +13963,7 @@
       <c r="BF224" s="3"/>
       <c r="BG224" s="3"/>
     </row>
-    <row r="225" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -13959,7 +14024,7 @@
       <c r="BF225" s="3"/>
       <c r="BG225" s="3"/>
     </row>
-    <row r="226" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -14020,7 +14085,7 @@
       <c r="BF226" s="3"/>
       <c r="BG226" s="3"/>
     </row>
-    <row r="227" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -14081,7 +14146,7 @@
       <c r="BF227" s="3"/>
       <c r="BG227" s="3"/>
     </row>
-    <row r="228" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -14142,7 +14207,7 @@
       <c r="BF228" s="3"/>
       <c r="BG228" s="3"/>
     </row>
-    <row r="229" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -14203,7 +14268,7 @@
       <c r="BF229" s="3"/>
       <c r="BG229" s="3"/>
     </row>
-    <row r="230" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -14264,7 +14329,7 @@
       <c r="BF230" s="3"/>
       <c r="BG230" s="3"/>
     </row>
-    <row r="231" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -14325,7 +14390,7 @@
       <c r="BF231" s="3"/>
       <c r="BG231" s="3"/>
     </row>
-    <row r="232" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -14386,7 +14451,7 @@
       <c r="BF232" s="3"/>
       <c r="BG232" s="3"/>
     </row>
-    <row r="233" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -14447,7 +14512,7 @@
       <c r="BF233" s="3"/>
       <c r="BG233" s="3"/>
     </row>
-    <row r="234" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -14508,7 +14573,7 @@
       <c r="BF234" s="3"/>
       <c r="BG234" s="3"/>
     </row>
-    <row r="235" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -14569,7 +14634,7 @@
       <c r="BF235" s="3"/>
       <c r="BG235" s="3"/>
     </row>
-    <row r="236" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -14630,7 +14695,7 @@
       <c r="BF236" s="3"/>
       <c r="BG236" s="3"/>
     </row>
-    <row r="237" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -14691,7 +14756,7 @@
       <c r="BF237" s="3"/>
       <c r="BG237" s="3"/>
     </row>
-    <row r="238" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -14752,7 +14817,7 @@
       <c r="BF238" s="3"/>
       <c r="BG238" s="3"/>
     </row>
-    <row r="239" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -14813,7 +14878,7 @@
       <c r="BF239" s="3"/>
       <c r="BG239" s="3"/>
     </row>
-    <row r="240" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -14874,7 +14939,7 @@
       <c r="BF240" s="3"/>
       <c r="BG240" s="3"/>
     </row>
-    <row r="241" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -14935,7 +15000,7 @@
       <c r="BF241" s="3"/>
       <c r="BG241" s="3"/>
     </row>
-    <row r="242" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -14996,7 +15061,7 @@
       <c r="BF242" s="3"/>
       <c r="BG242" s="3"/>
     </row>
-    <row r="243" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -15057,7 +15122,7 @@
       <c r="BF243" s="3"/>
       <c r="BG243" s="3"/>
     </row>
-    <row r="244" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -15118,7 +15183,7 @@
       <c r="BF244" s="3"/>
       <c r="BG244" s="3"/>
     </row>
-    <row r="245" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -15179,7 +15244,7 @@
       <c r="BF245" s="3"/>
       <c r="BG245" s="3"/>
     </row>
-    <row r="246" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -15240,7 +15305,7 @@
       <c r="BF246" s="3"/>
       <c r="BG246" s="3"/>
     </row>
-    <row r="247" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -15301,7 +15366,7 @@
       <c r="BF247" s="3"/>
       <c r="BG247" s="3"/>
     </row>
-    <row r="248" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -15362,7 +15427,7 @@
       <c r="BF248" s="3"/>
       <c r="BG248" s="3"/>
     </row>
-    <row r="249" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -15423,7 +15488,7 @@
       <c r="BF249" s="3"/>
       <c r="BG249" s="3"/>
     </row>
-    <row r="250" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -15484,7 +15549,7 @@
       <c r="BF250" s="3"/>
       <c r="BG250" s="3"/>
     </row>
-    <row r="251" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -15545,7 +15610,7 @@
       <c r="BF251" s="3"/>
       <c r="BG251" s="3"/>
     </row>
-    <row r="252" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -15606,7 +15671,7 @@
       <c r="BF252" s="3"/>
       <c r="BG252" s="3"/>
     </row>
-    <row r="253" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -15667,7 +15732,7 @@
       <c r="BF253" s="3"/>
       <c r="BG253" s="3"/>
     </row>
-    <row r="254" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -15728,7 +15793,7 @@
       <c r="BF254" s="3"/>
       <c r="BG254" s="3"/>
     </row>
-    <row r="255" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -15789,7 +15854,7 @@
       <c r="BF255" s="3"/>
       <c r="BG255" s="3"/>
     </row>
-    <row r="256" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -15850,7 +15915,7 @@
       <c r="BF256" s="3"/>
       <c r="BG256" s="3"/>
     </row>
-    <row r="257" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -15911,7 +15976,7 @@
       <c r="BF257" s="3"/>
       <c r="BG257" s="3"/>
     </row>
-    <row r="258" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -15972,7 +16037,7 @@
       <c r="BF258" s="3"/>
       <c r="BG258" s="3"/>
     </row>
-    <row r="259" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -16033,7 +16098,7 @@
       <c r="BF259" s="3"/>
       <c r="BG259" s="3"/>
     </row>
-    <row r="260" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -16094,7 +16159,7 @@
       <c r="BF260" s="3"/>
       <c r="BG260" s="3"/>
     </row>
-    <row r="261" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -16155,7 +16220,7 @@
       <c r="BF261" s="3"/>
       <c r="BG261" s="3"/>
     </row>
-    <row r="262" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -16216,7 +16281,7 @@
       <c r="BF262" s="3"/>
       <c r="BG262" s="3"/>
     </row>
-    <row r="263" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -16277,7 +16342,7 @@
       <c r="BF263" s="3"/>
       <c r="BG263" s="3"/>
     </row>
-    <row r="264" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -16338,7 +16403,7 @@
       <c r="BF264" s="3"/>
       <c r="BG264" s="3"/>
     </row>
-    <row r="265" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -16399,7 +16464,7 @@
       <c r="BF265" s="3"/>
       <c r="BG265" s="3"/>
     </row>
-    <row r="266" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -16460,7 +16525,7 @@
       <c r="BF266" s="3"/>
       <c r="BG266" s="3"/>
     </row>
-    <row r="267" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -16521,7 +16586,7 @@
       <c r="BF267" s="3"/>
       <c r="BG267" s="3"/>
     </row>
-    <row r="268" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -16582,7 +16647,7 @@
       <c r="BF268" s="3"/>
       <c r="BG268" s="3"/>
     </row>
-    <row r="269" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -16643,7 +16708,7 @@
       <c r="BF269" s="3"/>
       <c r="BG269" s="3"/>
     </row>
-    <row r="270" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -16704,7 +16769,7 @@
       <c r="BF270" s="3"/>
       <c r="BG270" s="3"/>
     </row>
-    <row r="271" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -16765,7 +16830,7 @@
       <c r="BF271" s="3"/>
       <c r="BG271" s="3"/>
     </row>
-    <row r="272" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -16826,7 +16891,7 @@
       <c r="BF272" s="3"/>
       <c r="BG272" s="3"/>
     </row>
-    <row r="273" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -16887,7 +16952,7 @@
       <c r="BF273" s="3"/>
       <c r="BG273" s="3"/>
     </row>
-    <row r="274" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -16948,7 +17013,7 @@
       <c r="BF274" s="3"/>
       <c r="BG274" s="3"/>
     </row>
-    <row r="275" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -17009,7 +17074,7 @@
       <c r="BF275" s="3"/>
       <c r="BG275" s="3"/>
     </row>
-    <row r="276" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -17070,7 +17135,7 @@
       <c r="BF276" s="3"/>
       <c r="BG276" s="3"/>
     </row>
-    <row r="277" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -17131,7 +17196,7 @@
       <c r="BF277" s="3"/>
       <c r="BG277" s="3"/>
     </row>
-    <row r="278" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -17192,7 +17257,7 @@
       <c r="BF278" s="3"/>
       <c r="BG278" s="3"/>
     </row>
-    <row r="279" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -17253,7 +17318,7 @@
       <c r="BF279" s="3"/>
       <c r="BG279" s="3"/>
     </row>
-    <row r="280" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -17314,7 +17379,7 @@
       <c r="BF280" s="3"/>
       <c r="BG280" s="3"/>
     </row>
-    <row r="281" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -17375,7 +17440,7 @@
       <c r="BF281" s="3"/>
       <c r="BG281" s="3"/>
     </row>
-    <row r="282" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -17436,7 +17501,7 @@
       <c r="BF282" s="3"/>
       <c r="BG282" s="3"/>
     </row>
-    <row r="283" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -17497,7 +17562,7 @@
       <c r="BF283" s="3"/>
       <c r="BG283" s="3"/>
     </row>
-    <row r="284" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -17558,7 +17623,7 @@
       <c r="BF284" s="3"/>
       <c r="BG284" s="3"/>
     </row>
-    <row r="285" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -17619,7 +17684,7 @@
       <c r="BF285" s="3"/>
       <c r="BG285" s="3"/>
     </row>
-    <row r="286" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -17680,7 +17745,7 @@
       <c r="BF286" s="3"/>
       <c r="BG286" s="3"/>
     </row>
-    <row r="287" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -17741,7 +17806,7 @@
       <c r="BF287" s="3"/>
       <c r="BG287" s="3"/>
     </row>
-    <row r="288" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -17802,7 +17867,7 @@
       <c r="BF288" s="3"/>
       <c r="BG288" s="3"/>
     </row>
-    <row r="289" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -17863,7 +17928,7 @@
       <c r="BF289" s="3"/>
       <c r="BG289" s="3"/>
     </row>
-    <row r="290" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -17924,7 +17989,7 @@
       <c r="BF290" s="3"/>
       <c r="BG290" s="3"/>
     </row>
-    <row r="291" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -17985,7 +18050,7 @@
       <c r="BF291" s="3"/>
       <c r="BG291" s="3"/>
     </row>
-    <row r="292" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -18046,7 +18111,7 @@
       <c r="BF292" s="3"/>
       <c r="BG292" s="3"/>
     </row>
-    <row r="293" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -18107,7 +18172,7 @@
       <c r="BF293" s="3"/>
       <c r="BG293" s="3"/>
     </row>
-    <row r="294" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -18168,7 +18233,7 @@
       <c r="BF294" s="3"/>
       <c r="BG294" s="3"/>
     </row>
-    <row r="295" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -18229,7 +18294,7 @@
       <c r="BF295" s="3"/>
       <c r="BG295" s="3"/>
     </row>
-    <row r="296" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -18290,7 +18355,7 @@
       <c r="BF296" s="3"/>
       <c r="BG296" s="3"/>
     </row>
-    <row r="297" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -18351,7 +18416,7 @@
       <c r="BF297" s="3"/>
       <c r="BG297" s="3"/>
     </row>
-    <row r="298" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -18412,7 +18477,7 @@
       <c r="BF298" s="3"/>
       <c r="BG298" s="3"/>
     </row>
-    <row r="299" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -18473,7 +18538,7 @@
       <c r="BF299" s="3"/>
       <c r="BG299" s="3"/>
     </row>
-    <row r="300" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -18534,7 +18599,7 @@
       <c r="BF300" s="3"/>
       <c r="BG300" s="3"/>
     </row>
-    <row r="301" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -18595,7 +18660,7 @@
       <c r="BF301" s="3"/>
       <c r="BG301" s="3"/>
     </row>
-    <row r="302" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -18656,7 +18721,7 @@
       <c r="BF302" s="3"/>
       <c r="BG302" s="3"/>
     </row>
-    <row r="303" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -18717,7 +18782,7 @@
       <c r="BF303" s="3"/>
       <c r="BG303" s="3"/>
     </row>
-    <row r="304" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -18778,7 +18843,7 @@
       <c r="BF304" s="3"/>
       <c r="BG304" s="3"/>
     </row>
-    <row r="305" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -18839,7 +18904,7 @@
       <c r="BF305" s="3"/>
       <c r="BG305" s="3"/>
     </row>
-    <row r="306" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -18900,7 +18965,7 @@
       <c r="BF306" s="3"/>
       <c r="BG306" s="3"/>
     </row>
-    <row r="307" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -18961,7 +19026,7 @@
       <c r="BF307" s="3"/>
       <c r="BG307" s="3"/>
     </row>
-    <row r="308" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -19022,7 +19087,7 @@
       <c r="BF308" s="3"/>
       <c r="BG308" s="3"/>
     </row>
-    <row r="309" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -19083,7 +19148,7 @@
       <c r="BF309" s="3"/>
       <c r="BG309" s="3"/>
     </row>
-    <row r="310" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -19144,7 +19209,7 @@
       <c r="BF310" s="3"/>
       <c r="BG310" s="3"/>
     </row>
-    <row r="311" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -19205,7 +19270,7 @@
       <c r="BF311" s="3"/>
       <c r="BG311" s="3"/>
     </row>
-    <row r="312" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -19266,7 +19331,7 @@
       <c r="BF312" s="3"/>
       <c r="BG312" s="3"/>
     </row>
-    <row r="313" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -19327,7 +19392,7 @@
       <c r="BF313" s="3"/>
       <c r="BG313" s="3"/>
     </row>
-    <row r="314" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -19388,7 +19453,7 @@
       <c r="BF314" s="3"/>
       <c r="BG314" s="3"/>
     </row>
-    <row r="315" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -19449,7 +19514,7 @@
       <c r="BF315" s="3"/>
       <c r="BG315" s="3"/>
     </row>
-    <row r="316" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -19510,7 +19575,7 @@
       <c r="BF316" s="3"/>
       <c r="BG316" s="3"/>
     </row>
-    <row r="317" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -19571,7 +19636,7 @@
       <c r="BF317" s="3"/>
       <c r="BG317" s="3"/>
     </row>
-    <row r="318" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -19632,7 +19697,7 @@
       <c r="BF318" s="3"/>
       <c r="BG318" s="3"/>
     </row>
-    <row r="319" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -19693,7 +19758,7 @@
       <c r="BF319" s="3"/>
       <c r="BG319" s="3"/>
     </row>
-    <row r="320" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -19754,7 +19819,7 @@
       <c r="BF320" s="3"/>
       <c r="BG320" s="3"/>
     </row>
-    <row r="321" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -19815,7 +19880,7 @@
       <c r="BF321" s="3"/>
       <c r="BG321" s="3"/>
     </row>
-    <row r="322" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -19876,7 +19941,7 @@
       <c r="BF322" s="3"/>
       <c r="BG322" s="3"/>
     </row>
-    <row r="323" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -19937,7 +20002,7 @@
       <c r="BF323" s="3"/>
       <c r="BG323" s="3"/>
     </row>
-    <row r="324" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -19998,7 +20063,7 @@
       <c r="BF324" s="3"/>
       <c r="BG324" s="3"/>
     </row>
-    <row r="325" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -20059,7 +20124,7 @@
       <c r="BF325" s="3"/>
       <c r="BG325" s="3"/>
     </row>
-    <row r="326" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -20120,7 +20185,7 @@
       <c r="BF326" s="3"/>
       <c r="BG326" s="3"/>
     </row>
-    <row r="327" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -20181,7 +20246,7 @@
       <c r="BF327" s="3"/>
       <c r="BG327" s="3"/>
     </row>
-    <row r="328" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -20242,7 +20307,7 @@
       <c r="BF328" s="3"/>
       <c r="BG328" s="3"/>
     </row>
-    <row r="329" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -20303,7 +20368,7 @@
       <c r="BF329" s="3"/>
       <c r="BG329" s="3"/>
     </row>
-    <row r="330" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -20364,7 +20429,7 @@
       <c r="BF330" s="3"/>
       <c r="BG330" s="3"/>
     </row>
-    <row r="331" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -20425,7 +20490,7 @@
       <c r="BF331" s="3"/>
       <c r="BG331" s="3"/>
     </row>
-    <row r="332" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -20486,7 +20551,7 @@
       <c r="BF332" s="3"/>
       <c r="BG332" s="3"/>
     </row>
-    <row r="333" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -20547,7 +20612,7 @@
       <c r="BF333" s="3"/>
       <c r="BG333" s="3"/>
     </row>
-    <row r="334" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -20608,7 +20673,7 @@
       <c r="BF334" s="3"/>
       <c r="BG334" s="3"/>
     </row>
-    <row r="335" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -20669,7 +20734,7 @@
       <c r="BF335" s="3"/>
       <c r="BG335" s="3"/>
     </row>
-    <row r="336" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -20730,7 +20795,7 @@
       <c r="BF336" s="3"/>
       <c r="BG336" s="3"/>
     </row>
-    <row r="337" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -20791,7 +20856,7 @@
       <c r="BF337" s="3"/>
       <c r="BG337" s="3"/>
     </row>
-    <row r="338" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -20852,7 +20917,7 @@
       <c r="BF338" s="3"/>
       <c r="BG338" s="3"/>
     </row>
-    <row r="339" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -20913,7 +20978,7 @@
       <c r="BF339" s="3"/>
       <c r="BG339" s="3"/>
     </row>
-    <row r="340" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -20974,7 +21039,7 @@
       <c r="BF340" s="3"/>
       <c r="BG340" s="3"/>
     </row>
-    <row r="341" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -21035,7 +21100,7 @@
       <c r="BF341" s="3"/>
       <c r="BG341" s="3"/>
     </row>
-    <row r="342" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -21096,7 +21161,7 @@
       <c r="BF342" s="3"/>
       <c r="BG342" s="3"/>
     </row>
-    <row r="343" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -21157,7 +21222,7 @@
       <c r="BF343" s="3"/>
       <c r="BG343" s="3"/>
     </row>
-    <row r="344" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -21218,7 +21283,7 @@
       <c r="BF344" s="3"/>
       <c r="BG344" s="3"/>
     </row>
-    <row r="345" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -21279,7 +21344,7 @@
       <c r="BF345" s="3"/>
       <c r="BG345" s="3"/>
     </row>
-    <row r="346" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -21340,7 +21405,7 @@
       <c r="BF346" s="3"/>
       <c r="BG346" s="3"/>
     </row>
-    <row r="347" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -21401,7 +21466,7 @@
       <c r="BF347" s="3"/>
       <c r="BG347" s="3"/>
     </row>
-    <row r="348" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -21462,7 +21527,7 @@
       <c r="BF348" s="3"/>
       <c r="BG348" s="3"/>
     </row>
-    <row r="349" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -21523,7 +21588,7 @@
       <c r="BF349" s="3"/>
       <c r="BG349" s="3"/>
     </row>
-    <row r="350" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -21584,7 +21649,7 @@
       <c r="BF350" s="3"/>
       <c r="BG350" s="3"/>
     </row>
-    <row r="351" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -21645,7 +21710,7 @@
       <c r="BF351" s="3"/>
       <c r="BG351" s="3"/>
     </row>
-    <row r="352" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -21706,7 +21771,7 @@
       <c r="BF352" s="3"/>
       <c r="BG352" s="3"/>
     </row>
-    <row r="353" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -21767,7 +21832,7 @@
       <c r="BF353" s="3"/>
       <c r="BG353" s="3"/>
     </row>
-    <row r="354" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -21828,7 +21893,7 @@
       <c r="BF354" s="3"/>
       <c r="BG354" s="3"/>
     </row>
-    <row r="355" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -21889,7 +21954,7 @@
       <c r="BF355" s="3"/>
       <c r="BG355" s="3"/>
     </row>
-    <row r="356" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -21950,7 +22015,7 @@
       <c r="BF356" s="3"/>
       <c r="BG356" s="3"/>
     </row>
-    <row r="357" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -22011,7 +22076,7 @@
       <c r="BF357" s="3"/>
       <c r="BG357" s="3"/>
     </row>
-    <row r="358" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -22072,7 +22137,7 @@
       <c r="BF358" s="3"/>
       <c r="BG358" s="3"/>
     </row>
-    <row r="359" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -22133,7 +22198,7 @@
       <c r="BF359" s="3"/>
       <c r="BG359" s="3"/>
     </row>
-    <row r="360" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -22194,7 +22259,7 @@
       <c r="BF360" s="3"/>
       <c r="BG360" s="3"/>
     </row>
-    <row r="361" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -22255,7 +22320,7 @@
       <c r="BF361" s="3"/>
       <c r="BG361" s="3"/>
     </row>
-    <row r="362" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -22316,7 +22381,7 @@
       <c r="BF362" s="3"/>
       <c r="BG362" s="3"/>
     </row>
-    <row r="363" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -22377,7 +22442,7 @@
       <c r="BF363" s="3"/>
       <c r="BG363" s="3"/>
     </row>
-    <row r="364" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -22438,7 +22503,7 @@
       <c r="BF364" s="3"/>
       <c r="BG364" s="3"/>
     </row>
-    <row r="365" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -22499,7 +22564,7 @@
       <c r="BF365" s="3"/>
       <c r="BG365" s="3"/>
     </row>
-    <row r="366" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -22560,7 +22625,7 @@
       <c r="BF366" s="3"/>
       <c r="BG366" s="3"/>
     </row>
-    <row r="367" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -22621,7 +22686,7 @@
       <c r="BF367" s="3"/>
       <c r="BG367" s="3"/>
     </row>
-    <row r="368" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -22682,7 +22747,7 @@
       <c r="BF368" s="3"/>
       <c r="BG368" s="3"/>
     </row>
-    <row r="369" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -22743,7 +22808,7 @@
       <c r="BF369" s="3"/>
       <c r="BG369" s="3"/>
     </row>
-    <row r="370" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -22804,7 +22869,7 @@
       <c r="BF370" s="3"/>
       <c r="BG370" s="3"/>
     </row>
-    <row r="371" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -22865,7 +22930,7 @@
       <c r="BF371" s="3"/>
       <c r="BG371" s="3"/>
     </row>
-    <row r="372" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -22926,7 +22991,7 @@
       <c r="BF372" s="3"/>
       <c r="BG372" s="3"/>
     </row>
-    <row r="373" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -22987,7 +23052,7 @@
       <c r="BF373" s="3"/>
       <c r="BG373" s="3"/>
     </row>
-    <row r="374" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -23048,7 +23113,7 @@
       <c r="BF374" s="3"/>
       <c r="BG374" s="3"/>
     </row>
-    <row r="375" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -23109,7 +23174,7 @@
       <c r="BF375" s="3"/>
       <c r="BG375" s="3"/>
     </row>
-    <row r="376" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -23170,7 +23235,7 @@
       <c r="BF376" s="3"/>
       <c r="BG376" s="3"/>
     </row>
-    <row r="377" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -23231,7 +23296,7 @@
       <c r="BF377" s="3"/>
       <c r="BG377" s="3"/>
     </row>
-    <row r="378" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -23292,7 +23357,7 @@
       <c r="BF378" s="3"/>
       <c r="BG378" s="3"/>
     </row>
-    <row r="379" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -23353,7 +23418,7 @@
       <c r="BF379" s="3"/>
       <c r="BG379" s="3"/>
     </row>
-    <row r="380" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -23414,7 +23479,7 @@
       <c r="BF380" s="3"/>
       <c r="BG380" s="3"/>
     </row>
-    <row r="381" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -23475,7 +23540,7 @@
       <c r="BF381" s="3"/>
       <c r="BG381" s="3"/>
     </row>
-    <row r="382" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -23536,7 +23601,7 @@
       <c r="BF382" s="3"/>
       <c r="BG382" s="3"/>
     </row>
-    <row r="383" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -23597,7 +23662,7 @@
       <c r="BF383" s="3"/>
       <c r="BG383" s="3"/>
     </row>
-    <row r="384" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -23658,7 +23723,7 @@
       <c r="BF384" s="3"/>
       <c r="BG384" s="3"/>
     </row>
-    <row r="385" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -23719,7 +23784,7 @@
       <c r="BF385" s="3"/>
       <c r="BG385" s="3"/>
     </row>
-    <row r="386" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -23780,7 +23845,7 @@
       <c r="BF386" s="3"/>
       <c r="BG386" s="3"/>
     </row>
-    <row r="387" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -23841,7 +23906,7 @@
       <c r="BF387" s="3"/>
       <c r="BG387" s="3"/>
     </row>
-    <row r="388" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -23902,7 +23967,7 @@
       <c r="BF388" s="3"/>
       <c r="BG388" s="3"/>
     </row>
-    <row r="389" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -23963,7 +24028,7 @@
       <c r="BF389" s="3"/>
       <c r="BG389" s="3"/>
     </row>
-    <row r="390" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -24024,7 +24089,7 @@
       <c r="BF390" s="3"/>
       <c r="BG390" s="3"/>
     </row>
-    <row r="391" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -24085,7 +24150,7 @@
       <c r="BF391" s="3"/>
       <c r="BG391" s="3"/>
     </row>
-    <row r="392" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -24146,7 +24211,7 @@
       <c r="BF392" s="3"/>
       <c r="BG392" s="3"/>
     </row>
-    <row r="393" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -24207,7 +24272,7 @@
       <c r="BF393" s="3"/>
       <c r="BG393" s="3"/>
     </row>
-    <row r="394" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -24268,7 +24333,7 @@
       <c r="BF394" s="3"/>
       <c r="BG394" s="3"/>
     </row>
-    <row r="395" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -24329,7 +24394,7 @@
       <c r="BF395" s="3"/>
       <c r="BG395" s="3"/>
     </row>
-    <row r="396" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -24390,7 +24455,7 @@
       <c r="BF396" s="3"/>
       <c r="BG396" s="3"/>
     </row>
-    <row r="397" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -24451,7 +24516,7 @@
       <c r="BF397" s="3"/>
       <c r="BG397" s="3"/>
     </row>
-    <row r="398" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -24512,7 +24577,7 @@
       <c r="BF398" s="3"/>
       <c r="BG398" s="3"/>
     </row>
-    <row r="399" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -24573,7 +24638,7 @@
       <c r="BF399" s="3"/>
       <c r="BG399" s="3"/>
     </row>
-    <row r="400" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -24634,7 +24699,7 @@
       <c r="BF400" s="3"/>
       <c r="BG400" s="3"/>
     </row>
-    <row r="401" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -24695,7 +24760,7 @@
       <c r="BF401" s="3"/>
       <c r="BG401" s="3"/>
     </row>
-    <row r="402" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -24756,7 +24821,7 @@
       <c r="BF402" s="3"/>
       <c r="BG402" s="3"/>
     </row>
-    <row r="403" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -24817,7 +24882,7 @@
       <c r="BF403" s="3"/>
       <c r="BG403" s="3"/>
     </row>
-    <row r="404" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -24878,7 +24943,7 @@
       <c r="BF404" s="3"/>
       <c r="BG404" s="3"/>
     </row>
-    <row r="405" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -24939,7 +25004,7 @@
       <c r="BF405" s="3"/>
       <c r="BG405" s="3"/>
     </row>
-    <row r="406" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -25000,7 +25065,7 @@
       <c r="BF406" s="3"/>
       <c r="BG406" s="3"/>
     </row>
-    <row r="407" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -25061,7 +25126,7 @@
       <c r="BF407" s="3"/>
       <c r="BG407" s="3"/>
     </row>
-    <row r="408" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -25122,7 +25187,7 @@
       <c r="BF408" s="3"/>
       <c r="BG408" s="3"/>
     </row>
-    <row r="409" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -25183,7 +25248,7 @@
       <c r="BF409" s="3"/>
       <c r="BG409" s="3"/>
     </row>
-    <row r="410" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -25244,7 +25309,7 @@
       <c r="BF410" s="3"/>
       <c r="BG410" s="3"/>
     </row>
-    <row r="411" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -25305,7 +25370,7 @@
       <c r="BF411" s="3"/>
       <c r="BG411" s="3"/>
     </row>
-    <row r="412" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -25366,7 +25431,7 @@
       <c r="BF412" s="3"/>
       <c r="BG412" s="3"/>
     </row>
-    <row r="413" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -25427,7 +25492,7 @@
       <c r="BF413" s="3"/>
       <c r="BG413" s="3"/>
     </row>
-    <row r="414" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -25488,7 +25553,7 @@
       <c r="BF414" s="3"/>
       <c r="BG414" s="3"/>
     </row>
-    <row r="415" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -25549,7 +25614,7 @@
       <c r="BF415" s="3"/>
       <c r="BG415" s="3"/>
     </row>
-    <row r="416" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -25610,7 +25675,7 @@
       <c r="BF416" s="3"/>
       <c r="BG416" s="3"/>
     </row>
-    <row r="417" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -25671,7 +25736,7 @@
       <c r="BF417" s="3"/>
       <c r="BG417" s="3"/>
     </row>
-    <row r="418" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -25732,7 +25797,7 @@
       <c r="BF418" s="3"/>
       <c r="BG418" s="3"/>
     </row>
-    <row r="419" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -25793,7 +25858,7 @@
       <c r="BF419" s="3"/>
       <c r="BG419" s="3"/>
     </row>
-    <row r="420" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -25854,7 +25919,7 @@
       <c r="BF420" s="3"/>
       <c r="BG420" s="3"/>
     </row>
-    <row r="421" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -25915,7 +25980,7 @@
       <c r="BF421" s="3"/>
       <c r="BG421" s="3"/>
     </row>
-    <row r="422" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -25976,7 +26041,7 @@
       <c r="BF422" s="3"/>
       <c r="BG422" s="3"/>
     </row>
-    <row r="423" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -26037,7 +26102,7 @@
       <c r="BF423" s="3"/>
       <c r="BG423" s="3"/>
     </row>
-    <row r="424" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -26098,7 +26163,7 @@
       <c r="BF424" s="3"/>
       <c r="BG424" s="3"/>
     </row>
-    <row r="425" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -26159,7 +26224,7 @@
       <c r="BF425" s="3"/>
       <c r="BG425" s="3"/>
     </row>
-    <row r="426" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -26220,7 +26285,7 @@
       <c r="BF426" s="3"/>
       <c r="BG426" s="3"/>
     </row>
-    <row r="427" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -26281,7 +26346,7 @@
       <c r="BF427" s="3"/>
       <c r="BG427" s="3"/>
     </row>
-    <row r="428" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -26342,7 +26407,7 @@
       <c r="BF428" s="3"/>
       <c r="BG428" s="3"/>
     </row>
-    <row r="429" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -26403,7 +26468,7 @@
       <c r="BF429" s="3"/>
       <c r="BG429" s="3"/>
     </row>
-    <row r="430" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -26464,7 +26529,7 @@
       <c r="BF430" s="3"/>
       <c r="BG430" s="3"/>
     </row>
-    <row r="431" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -26525,7 +26590,7 @@
       <c r="BF431" s="3"/>
       <c r="BG431" s="3"/>
     </row>
-    <row r="432" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -26586,7 +26651,7 @@
       <c r="BF432" s="3"/>
       <c r="BG432" s="3"/>
     </row>
-    <row r="433" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -26647,7 +26712,7 @@
       <c r="BF433" s="3"/>
       <c r="BG433" s="3"/>
     </row>
-    <row r="434" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -26708,7 +26773,7 @@
       <c r="BF434" s="3"/>
       <c r="BG434" s="3"/>
     </row>
-    <row r="435" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -26769,7 +26834,7 @@
       <c r="BF435" s="3"/>
       <c r="BG435" s="3"/>
     </row>
-    <row r="436" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -26830,7 +26895,7 @@
       <c r="BF436" s="3"/>
       <c r="BG436" s="3"/>
     </row>
-    <row r="437" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -26891,7 +26956,7 @@
       <c r="BF437" s="3"/>
       <c r="BG437" s="3"/>
     </row>
-    <row r="438" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -26952,7 +27017,7 @@
       <c r="BF438" s="3"/>
       <c r="BG438" s="3"/>
     </row>
-    <row r="439" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -27013,7 +27078,7 @@
       <c r="BF439" s="3"/>
       <c r="BG439" s="3"/>
     </row>
-    <row r="440" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -27074,7 +27139,7 @@
       <c r="BF440" s="3"/>
       <c r="BG440" s="3"/>
     </row>
-    <row r="441" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -27135,7 +27200,7 @@
       <c r="BF441" s="3"/>
       <c r="BG441" s="3"/>
     </row>
-    <row r="442" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -27196,7 +27261,7 @@
       <c r="BF442" s="3"/>
       <c r="BG442" s="3"/>
     </row>
-    <row r="443" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -27257,7 +27322,7 @@
       <c r="BF443" s="3"/>
       <c r="BG443" s="3"/>
     </row>
-    <row r="444" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -27318,7 +27383,7 @@
       <c r="BF444" s="3"/>
       <c r="BG444" s="3"/>
     </row>
-    <row r="445" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -27379,7 +27444,7 @@
       <c r="BF445" s="3"/>
       <c r="BG445" s="3"/>
     </row>
-    <row r="446" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -27440,7 +27505,7 @@
       <c r="BF446" s="3"/>
       <c r="BG446" s="3"/>
     </row>
-    <row r="447" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -27501,7 +27566,7 @@
       <c r="BF447" s="3"/>
       <c r="BG447" s="3"/>
     </row>
-    <row r="448" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -27562,7 +27627,7 @@
       <c r="BF448" s="3"/>
       <c r="BG448" s="3"/>
     </row>
-    <row r="449" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -27623,7 +27688,7 @@
       <c r="BF449" s="3"/>
       <c r="BG449" s="3"/>
     </row>
-    <row r="450" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -27684,7 +27749,7 @@
       <c r="BF450" s="3"/>
       <c r="BG450" s="3"/>
     </row>
-    <row r="451" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -27745,7 +27810,7 @@
       <c r="BF451" s="3"/>
       <c r="BG451" s="3"/>
     </row>
-    <row r="452" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -27806,7 +27871,7 @@
       <c r="BF452" s="3"/>
       <c r="BG452" s="3"/>
     </row>
-    <row r="453" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -27867,7 +27932,7 @@
       <c r="BF453" s="3"/>
       <c r="BG453" s="3"/>
     </row>
-    <row r="454" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -27928,7 +27993,7 @@
       <c r="BF454" s="3"/>
       <c r="BG454" s="3"/>
     </row>
-    <row r="455" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -27989,7 +28054,7 @@
       <c r="BF455" s="3"/>
       <c r="BG455" s="3"/>
     </row>
-    <row r="456" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -28050,7 +28115,7 @@
       <c r="BF456" s="3"/>
       <c r="BG456" s="3"/>
     </row>
-    <row r="457" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" s="13" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -28111,7 +28176,7 @@
       <c r="BF457" s="3"/>
       <c r="BG457" s="3"/>
     </row>
-    <row r="458" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -28172,7 +28237,7 @@
       <c r="BF458" s="3"/>
       <c r="BG458" s="3"/>
     </row>
-    <row r="459" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -28233,7 +28298,7 @@
       <c r="BF459" s="3"/>
       <c r="BG459" s="3"/>
     </row>
-    <row r="460" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -28294,7 +28359,7 @@
       <c r="BF460" s="3"/>
       <c r="BG460" s="3"/>
     </row>
-    <row r="461" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -28355,7 +28420,7 @@
       <c r="BF461" s="3"/>
       <c r="BG461" s="3"/>
     </row>
-    <row r="462" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -28416,7 +28481,7 @@
       <c r="BF462" s="3"/>
       <c r="BG462" s="3"/>
     </row>
-    <row r="463" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -28477,7 +28542,7 @@
       <c r="BF463" s="3"/>
       <c r="BG463" s="3"/>
     </row>
-    <row r="464" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -28538,7 +28603,7 @@
       <c r="BF464" s="3"/>
       <c r="BG464" s="3"/>
     </row>
-    <row r="465" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -28599,7 +28664,7 @@
       <c r="BF465" s="3"/>
       <c r="BG465" s="3"/>
     </row>
-    <row r="466" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -28660,7 +28725,7 @@
       <c r="BF466" s="3"/>
       <c r="BG466" s="3"/>
     </row>
-    <row r="467" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -28721,7 +28786,7 @@
       <c r="BF467" s="3"/>
       <c r="BG467" s="3"/>
     </row>
-    <row r="468" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -28782,7 +28847,7 @@
       <c r="BF468" s="3"/>
       <c r="BG468" s="3"/>
     </row>
-    <row r="469" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -28843,7 +28908,7 @@
       <c r="BF469" s="3"/>
       <c r="BG469" s="3"/>
     </row>
-    <row r="470" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -28904,7 +28969,7 @@
       <c r="BF470" s="3"/>
       <c r="BG470" s="3"/>
     </row>
-    <row r="471" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -28965,7 +29030,7 @@
       <c r="BF471" s="3"/>
       <c r="BG471" s="3"/>
     </row>
-    <row r="472" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -29026,7 +29091,7 @@
       <c r="BF472" s="3"/>
       <c r="BG472" s="3"/>
     </row>
-    <row r="473" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -29087,7 +29152,7 @@
       <c r="BF473" s="3"/>
       <c r="BG473" s="3"/>
     </row>
-    <row r="474" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -29148,7 +29213,7 @@
       <c r="BF474" s="3"/>
       <c r="BG474" s="3"/>
     </row>
-    <row r="475" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -29209,7 +29274,7 @@
       <c r="BF475" s="3"/>
       <c r="BG475" s="3"/>
     </row>
-    <row r="476" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -29270,7 +29335,7 @@
       <c r="BF476" s="3"/>
       <c r="BG476" s="3"/>
     </row>
-    <row r="477" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -29331,7 +29396,7 @@
       <c r="BF477" s="3"/>
       <c r="BG477" s="3"/>
     </row>
-    <row r="478" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -29392,7 +29457,7 @@
       <c r="BF478" s="3"/>
       <c r="BG478" s="3"/>
     </row>
-    <row r="479" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -29453,7 +29518,7 @@
       <c r="BF479" s="3"/>
       <c r="BG479" s="3"/>
     </row>
-    <row r="480" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -29514,7 +29579,7 @@
       <c r="BF480" s="3"/>
       <c r="BG480" s="3"/>
     </row>
-    <row r="481" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -29575,7 +29640,7 @@
       <c r="BF481" s="3"/>
       <c r="BG481" s="3"/>
     </row>
-    <row r="482" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -29636,7 +29701,7 @@
       <c r="BF482" s="3"/>
       <c r="BG482" s="3"/>
     </row>
-    <row r="483" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -29697,7 +29762,7 @@
       <c r="BF483" s="3"/>
       <c r="BG483" s="3"/>
     </row>
-    <row r="484" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -29758,7 +29823,7 @@
       <c r="BF484" s="3"/>
       <c r="BG484" s="3"/>
     </row>
-    <row r="485" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -29819,7 +29884,7 @@
       <c r="BF485" s="3"/>
       <c r="BG485" s="3"/>
     </row>
-    <row r="486" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -29880,7 +29945,7 @@
       <c r="BF486" s="3"/>
       <c r="BG486" s="3"/>
     </row>
-    <row r="487" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -29941,7 +30006,7 @@
       <c r="BF487" s="3"/>
       <c r="BG487" s="3"/>
     </row>
-    <row r="488" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -30002,7 +30067,7 @@
       <c r="BF488" s="3"/>
       <c r="BG488" s="3"/>
     </row>
-    <row r="489" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -30063,7 +30128,7 @@
       <c r="BF489" s="3"/>
       <c r="BG489" s="3"/>
     </row>
-    <row r="490" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -30124,7 +30189,7 @@
       <c r="BF490" s="3"/>
       <c r="BG490" s="3"/>
     </row>
-    <row r="491" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -30185,7 +30250,7 @@
       <c r="BF491" s="3"/>
       <c r="BG491" s="3"/>
     </row>
-    <row r="492" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -30246,7 +30311,7 @@
       <c r="BF492" s="3"/>
       <c r="BG492" s="3"/>
     </row>
-    <row r="493" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -30307,7 +30372,7 @@
       <c r="BF493" s="3"/>
       <c r="BG493" s="3"/>
     </row>
-    <row r="494" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -30368,7 +30433,7 @@
       <c r="BF494" s="3"/>
       <c r="BG494" s="3"/>
     </row>
-    <row r="495" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -30429,7 +30494,7 @@
       <c r="BF495" s="3"/>
       <c r="BG495" s="3"/>
     </row>
-    <row r="496" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -30490,7 +30555,7 @@
       <c r="BF496" s="3"/>
       <c r="BG496" s="3"/>
     </row>
-    <row r="497" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -30551,7 +30616,7 @@
       <c r="BF497" s="3"/>
       <c r="BG497" s="3"/>
     </row>
-    <row r="498" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -30612,7 +30677,7 @@
       <c r="BF498" s="3"/>
       <c r="BG498" s="3"/>
     </row>
-    <row r="499" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -30673,7 +30738,7 @@
       <c r="BF499" s="3"/>
       <c r="BG499" s="3"/>
     </row>
-    <row r="500" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -30734,7 +30799,7 @@
       <c r="BF500" s="3"/>
       <c r="BG500" s="3"/>
     </row>
-    <row r="501" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -30795,7 +30860,7 @@
       <c r="BF501" s="3"/>
       <c r="BG501" s="3"/>
     </row>
-    <row r="502" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -30856,7 +30921,7 @@
       <c r="BF502" s="3"/>
       <c r="BG502" s="3"/>
     </row>
-    <row r="503" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -30917,7 +30982,7 @@
       <c r="BF503" s="3"/>
       <c r="BG503" s="3"/>
     </row>
-    <row r="504" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -30978,7 +31043,7 @@
       <c r="BF504" s="3"/>
       <c r="BG504" s="3"/>
     </row>
-    <row r="505" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -31039,7 +31104,7 @@
       <c r="BF505" s="3"/>
       <c r="BG505" s="3"/>
     </row>
-    <row r="506" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -31100,7 +31165,7 @@
       <c r="BF506" s="3"/>
       <c r="BG506" s="3"/>
     </row>
-    <row r="507" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -31161,7 +31226,7 @@
       <c r="BF507" s="3"/>
       <c r="BG507" s="3"/>
     </row>
-    <row r="508" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -31222,7 +31287,7 @@
       <c r="BF508" s="3"/>
       <c r="BG508" s="3"/>
     </row>
-    <row r="509" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -31283,7 +31348,7 @@
       <c r="BF509" s="3"/>
       <c r="BG509" s="3"/>
     </row>
-    <row r="510" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -31344,7 +31409,7 @@
       <c r="BF510" s="3"/>
       <c r="BG510" s="3"/>
     </row>
-    <row r="511" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -31405,7 +31470,7 @@
       <c r="BF511" s="3"/>
       <c r="BG511" s="3"/>
     </row>
-    <row r="512" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -31466,7 +31531,7 @@
       <c r="BF512" s="3"/>
       <c r="BG512" s="3"/>
     </row>
-    <row r="513" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -31527,7 +31592,7 @@
       <c r="BF513" s="3"/>
       <c r="BG513" s="3"/>
     </row>
-    <row r="514" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -31588,7 +31653,7 @@
       <c r="BF514" s="3"/>
       <c r="BG514" s="3"/>
     </row>
-    <row r="515" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -31649,7 +31714,7 @@
       <c r="BF515" s="3"/>
       <c r="BG515" s="3"/>
     </row>
-    <row r="516" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -31710,7 +31775,7 @@
       <c r="BF516" s="3"/>
       <c r="BG516" s="3"/>
     </row>
-    <row r="517" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -31771,7 +31836,7 @@
       <c r="BF517" s="3"/>
       <c r="BG517" s="3"/>
     </row>
-    <row r="518" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -31832,7 +31897,7 @@
       <c r="BF518" s="3"/>
       <c r="BG518" s="3"/>
     </row>
-    <row r="519" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -31893,7 +31958,7 @@
       <c r="BF519" s="3"/>
       <c r="BG519" s="3"/>
     </row>
-    <row r="520" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -31954,7 +32019,7 @@
       <c r="BF520" s="3"/>
       <c r="BG520" s="3"/>
     </row>
-    <row r="521" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -32015,7 +32080,7 @@
       <c r="BF521" s="3"/>
       <c r="BG521" s="3"/>
     </row>
-    <row r="522" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -32076,7 +32141,7 @@
       <c r="BF522" s="3"/>
       <c r="BG522" s="3"/>
     </row>
-    <row r="523" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -32137,7 +32202,7 @@
       <c r="BF523" s="3"/>
       <c r="BG523" s="3"/>
     </row>
-    <row r="524" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -32198,7 +32263,7 @@
       <c r="BF524" s="3"/>
       <c r="BG524" s="3"/>
     </row>
-    <row r="525" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -32259,7 +32324,7 @@
       <c r="BF525" s="3"/>
       <c r="BG525" s="3"/>
     </row>
-    <row r="526" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -32320,7 +32385,7 @@
       <c r="BF526" s="3"/>
       <c r="BG526" s="3"/>
     </row>
-    <row r="527" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -32381,7 +32446,7 @@
       <c r="BF527" s="3"/>
       <c r="BG527" s="3"/>
     </row>
-    <row r="528" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -32442,7 +32507,7 @@
       <c r="BF528" s="3"/>
       <c r="BG528" s="3"/>
     </row>
-    <row r="529" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -32503,7 +32568,7 @@
       <c r="BF529" s="3"/>
       <c r="BG529" s="3"/>
     </row>
-    <row r="530" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -32564,7 +32629,7 @@
       <c r="BF530" s="3"/>
       <c r="BG530" s="3"/>
     </row>
-    <row r="531" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -32625,7 +32690,7 @@
       <c r="BF531" s="3"/>
       <c r="BG531" s="3"/>
     </row>
-    <row r="532" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -32686,7 +32751,7 @@
       <c r="BF532" s="3"/>
       <c r="BG532" s="3"/>
     </row>
-    <row r="533" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -32747,7 +32812,7 @@
       <c r="BF533" s="3"/>
       <c r="BG533" s="3"/>
     </row>
-    <row r="534" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -32808,7 +32873,7 @@
       <c r="BF534" s="3"/>
       <c r="BG534" s="3"/>
     </row>
-    <row r="535" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -32869,7 +32934,7 @@
       <c r="BF535" s="3"/>
       <c r="BG535" s="3"/>
     </row>
-    <row r="536" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -32930,7 +32995,7 @@
       <c r="BF536" s="3"/>
       <c r="BG536" s="3"/>
     </row>
-    <row r="537" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -32991,7 +33056,7 @@
       <c r="BF537" s="3"/>
       <c r="BG537" s="3"/>
     </row>
-    <row r="538" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -33052,7 +33117,7 @@
       <c r="BF538" s="3"/>
       <c r="BG538" s="3"/>
     </row>
-    <row r="539" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -33113,7 +33178,7 @@
       <c r="BF539" s="3"/>
       <c r="BG539" s="3"/>
     </row>
-    <row r="540" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -33174,7 +33239,7 @@
       <c r="BF540" s="3"/>
       <c r="BG540" s="3"/>
     </row>
-    <row r="541" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -33235,7 +33300,7 @@
       <c r="BF541" s="3"/>
       <c r="BG541" s="3"/>
     </row>
-    <row r="542" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -33296,7 +33361,7 @@
       <c r="BF542" s="3"/>
       <c r="BG542" s="3"/>
     </row>
-    <row r="543" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -33357,7 +33422,7 @@
       <c r="BF543" s="3"/>
       <c r="BG543" s="3"/>
     </row>
-    <row r="544" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -33418,7 +33483,7 @@
       <c r="BF544" s="3"/>
       <c r="BG544" s="3"/>
     </row>
-    <row r="545" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -33479,7 +33544,7 @@
       <c r="BF545" s="3"/>
       <c r="BG545" s="3"/>
     </row>
-    <row r="546" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -33540,7 +33605,7 @@
       <c r="BF546" s="3"/>
       <c r="BG546" s="3"/>
     </row>
-    <row r="547" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -33601,7 +33666,7 @@
       <c r="BF547" s="3"/>
       <c r="BG547" s="3"/>
     </row>
-    <row r="548" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -33662,7 +33727,7 @@
       <c r="BF548" s="3"/>
       <c r="BG548" s="3"/>
     </row>
-    <row r="549" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -33723,7 +33788,7 @@
       <c r="BF549" s="3"/>
       <c r="BG549" s="3"/>
     </row>
-    <row r="550" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -33784,7 +33849,7 @@
       <c r="BF550" s="3"/>
       <c r="BG550" s="3"/>
     </row>
-    <row r="551" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -33845,7 +33910,7 @@
       <c r="BF551" s="3"/>
       <c r="BG551" s="3"/>
     </row>
-    <row r="552" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -33906,7 +33971,7 @@
       <c r="BF552" s="3"/>
       <c r="BG552" s="3"/>
     </row>
-    <row r="553" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -33967,7 +34032,7 @@
       <c r="BF553" s="3"/>
       <c r="BG553" s="3"/>
     </row>
-    <row r="554" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -34028,7 +34093,7 @@
       <c r="BF554" s="3"/>
       <c r="BG554" s="3"/>
     </row>
-    <row r="555" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -34089,7 +34154,7 @@
       <c r="BF555" s="3"/>
       <c r="BG555" s="3"/>
     </row>
-    <row r="556" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -34150,7 +34215,7 @@
       <c r="BF556" s="3"/>
       <c r="BG556" s="3"/>
     </row>
-    <row r="557" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -34211,7 +34276,7 @@
       <c r="BF557" s="3"/>
       <c r="BG557" s="3"/>
     </row>
-    <row r="558" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -34272,7 +34337,7 @@
       <c r="BF558" s="3"/>
       <c r="BG558" s="3"/>
     </row>
-    <row r="559" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -34333,7 +34398,7 @@
       <c r="BF559" s="3"/>
       <c r="BG559" s="3"/>
     </row>
-    <row r="560" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -34394,7 +34459,7 @@
       <c r="BF560" s="3"/>
       <c r="BG560" s="3"/>
     </row>
-    <row r="561" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -34455,7 +34520,7 @@
       <c r="BF561" s="3"/>
       <c r="BG561" s="3"/>
     </row>
-    <row r="562" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -34516,7 +34581,7 @@
       <c r="BF562" s="3"/>
       <c r="BG562" s="3"/>
     </row>
-    <row r="563" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -34577,7 +34642,7 @@
       <c r="BF563" s="3"/>
       <c r="BG563" s="3"/>
     </row>
-    <row r="564" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -34638,7 +34703,7 @@
       <c r="BF564" s="3"/>
       <c r="BG564" s="3"/>
     </row>
-    <row r="565" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -34699,7 +34764,7 @@
       <c r="BF565" s="3"/>
       <c r="BG565" s="3"/>
     </row>
-    <row r="566" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -34760,7 +34825,7 @@
       <c r="BF566" s="3"/>
       <c r="BG566" s="3"/>
     </row>
-    <row r="567" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -34821,7 +34886,7 @@
       <c r="BF567" s="3"/>
       <c r="BG567" s="3"/>
     </row>
-    <row r="568" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -34882,7 +34947,7 @@
       <c r="BF568" s="3"/>
       <c r="BG568" s="3"/>
     </row>
-    <row r="569" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -34943,7 +35008,7 @@
       <c r="BF569" s="3"/>
       <c r="BG569" s="3"/>
     </row>
-    <row r="570" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -35004,7 +35069,7 @@
       <c r="BF570" s="3"/>
       <c r="BG570" s="3"/>
     </row>
-    <row r="571" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -35065,7 +35130,7 @@
       <c r="BF571" s="3"/>
       <c r="BG571" s="3"/>
     </row>
-    <row r="572" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -35126,7 +35191,7 @@
       <c r="BF572" s="3"/>
       <c r="BG572" s="3"/>
     </row>
-    <row r="573" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -35187,7 +35252,7 @@
       <c r="BF573" s="3"/>
       <c r="BG573" s="3"/>
     </row>
-    <row r="574" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -35248,7 +35313,7 @@
       <c r="BF574" s="3"/>
       <c r="BG574" s="3"/>
     </row>
-    <row r="575" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -35309,7 +35374,7 @@
       <c r="BF575" s="3"/>
       <c r="BG575" s="3"/>
     </row>
-    <row r="576" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -35370,7 +35435,7 @@
       <c r="BF576" s="3"/>
       <c r="BG576" s="3"/>
     </row>
-    <row r="577" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -35431,7 +35496,7 @@
       <c r="BF577" s="3"/>
       <c r="BG577" s="3"/>
     </row>
-    <row r="578" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -35492,7 +35557,7 @@
       <c r="BF578" s="3"/>
       <c r="BG578" s="3"/>
     </row>
-    <row r="579" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -35553,7 +35618,7 @@
       <c r="BF579" s="3"/>
       <c r="BG579" s="3"/>
     </row>
-    <row r="580" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -35614,7 +35679,7 @@
       <c r="BF580" s="3"/>
       <c r="BG580" s="3"/>
     </row>
-    <row r="581" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -35675,7 +35740,7 @@
       <c r="BF581" s="3"/>
       <c r="BG581" s="3"/>
     </row>
-    <row r="582" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -35736,7 +35801,7 @@
       <c r="BF582" s="3"/>
       <c r="BG582" s="3"/>
     </row>
-    <row r="583" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -35797,7 +35862,7 @@
       <c r="BF583" s="3"/>
       <c r="BG583" s="3"/>
     </row>
-    <row r="584" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -35858,7 +35923,7 @@
       <c r="BF584" s="3"/>
       <c r="BG584" s="3"/>
     </row>
-    <row r="585" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -35919,7 +35984,7 @@
       <c r="BF585" s="3"/>
       <c r="BG585" s="3"/>
     </row>
-    <row r="586" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -35980,7 +36045,7 @@
       <c r="BF586" s="3"/>
       <c r="BG586" s="3"/>
     </row>
-    <row r="587" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -36041,7 +36106,7 @@
       <c r="BF587" s="3"/>
       <c r="BG587" s="3"/>
     </row>
-    <row r="588" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -36102,7 +36167,7 @@
       <c r="BF588" s="3"/>
       <c r="BG588" s="3"/>
     </row>
-    <row r="589" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -36163,7 +36228,7 @@
       <c r="BF589" s="3"/>
       <c r="BG589" s="3"/>
     </row>
-    <row r="590" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -36224,7 +36289,7 @@
       <c r="BF590" s="3"/>
       <c r="BG590" s="3"/>
     </row>
-    <row r="591" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -36285,7 +36350,7 @@
       <c r="BF591" s="3"/>
       <c r="BG591" s="3"/>
     </row>
-    <row r="592" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -36346,7 +36411,7 @@
       <c r="BF592" s="3"/>
       <c r="BG592" s="3"/>
     </row>
-    <row r="593" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -36407,7 +36472,7 @@
       <c r="BF593" s="3"/>
       <c r="BG593" s="3"/>
     </row>
-    <row r="594" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -36468,7 +36533,7 @@
       <c r="BF594" s="3"/>
       <c r="BG594" s="3"/>
     </row>
-    <row r="595" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -36529,7 +36594,7 @@
       <c r="BF595" s="3"/>
       <c r="BG595" s="3"/>
     </row>
-    <row r="596" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -36590,7 +36655,7 @@
       <c r="BF596" s="3"/>
       <c r="BG596" s="3"/>
     </row>
-    <row r="597" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -36651,7 +36716,7 @@
       <c r="BF597" s="3"/>
       <c r="BG597" s="3"/>
     </row>
-    <row r="598" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -36712,7 +36777,7 @@
       <c r="BF598" s="3"/>
       <c r="BG598" s="3"/>
     </row>
-    <row r="599" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -36773,7 +36838,7 @@
       <c r="BF599" s="3"/>
       <c r="BG599" s="3"/>
     </row>
-    <row r="600" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -36834,7 +36899,7 @@
       <c r="BF600" s="3"/>
       <c r="BG600" s="3"/>
     </row>
-    <row r="601" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -36895,7 +36960,7 @@
       <c r="BF601" s="3"/>
       <c r="BG601" s="3"/>
     </row>
-    <row r="602" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -36956,7 +37021,7 @@
       <c r="BF602" s="3"/>
       <c r="BG602" s="3"/>
     </row>
-    <row r="603" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -37017,7 +37082,7 @@
       <c r="BF603" s="3"/>
       <c r="BG603" s="3"/>
     </row>
-    <row r="604" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -37078,7 +37143,7 @@
       <c r="BF604" s="3"/>
       <c r="BG604" s="3"/>
     </row>
-    <row r="605" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -37139,7 +37204,7 @@
       <c r="BF605" s="3"/>
       <c r="BG605" s="3"/>
     </row>
-    <row r="606" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -37200,7 +37265,7 @@
       <c r="BF606" s="3"/>
       <c r="BG606" s="3"/>
     </row>
-    <row r="607" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -37261,7 +37326,7 @@
       <c r="BF607" s="3"/>
       <c r="BG607" s="3"/>
     </row>
-    <row r="608" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -37322,7 +37387,7 @@
       <c r="BF608" s="3"/>
       <c r="BG608" s="3"/>
     </row>
-    <row r="609" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -37383,7 +37448,7 @@
       <c r="BF609" s="3"/>
       <c r="BG609" s="3"/>
     </row>
-    <row r="610" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -37444,7 +37509,7 @@
       <c r="BF610" s="3"/>
       <c r="BG610" s="3"/>
     </row>
-    <row r="611" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -37505,7 +37570,7 @@
       <c r="BF611" s="3"/>
       <c r="BG611" s="3"/>
     </row>
-    <row r="612" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -37566,7 +37631,7 @@
       <c r="BF612" s="3"/>
       <c r="BG612" s="3"/>
     </row>
-    <row r="613" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -37627,7 +37692,7 @@
       <c r="BF613" s="3"/>
       <c r="BG613" s="3"/>
     </row>
-    <row r="614" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -37688,7 +37753,7 @@
       <c r="BF614" s="3"/>
       <c r="BG614" s="3"/>
     </row>
-    <row r="615" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -37749,7 +37814,7 @@
       <c r="BF615" s="3"/>
       <c r="BG615" s="3"/>
     </row>
-    <row r="616" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -37810,7 +37875,7 @@
       <c r="BF616" s="3"/>
       <c r="BG616" s="3"/>
     </row>
-    <row r="617" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -37871,7 +37936,7 @@
       <c r="BF617" s="3"/>
       <c r="BG617" s="3"/>
     </row>
-    <row r="618" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -37932,7 +37997,7 @@
       <c r="BF618" s="3"/>
       <c r="BG618" s="3"/>
     </row>
-    <row r="619" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -37993,7 +38058,7 @@
       <c r="BF619" s="3"/>
       <c r="BG619" s="3"/>
     </row>
-    <row r="620" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -38054,7 +38119,7 @@
       <c r="BF620" s="3"/>
       <c r="BG620" s="3"/>
     </row>
-    <row r="621" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -38115,7 +38180,7 @@
       <c r="BF621" s="3"/>
       <c r="BG621" s="3"/>
     </row>
-    <row r="622" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -38176,7 +38241,7 @@
       <c r="BF622" s="3"/>
       <c r="BG622" s="3"/>
     </row>
-    <row r="623" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -38237,7 +38302,7 @@
       <c r="BF623" s="3"/>
       <c r="BG623" s="3"/>
     </row>
-    <row r="624" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -38298,7 +38363,7 @@
       <c r="BF624" s="3"/>
       <c r="BG624" s="3"/>
     </row>
-    <row r="625" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -38359,7 +38424,7 @@
       <c r="BF625" s="3"/>
       <c r="BG625" s="3"/>
     </row>
-    <row r="626" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -38420,7 +38485,7 @@
       <c r="BF626" s="3"/>
       <c r="BG626" s="3"/>
     </row>
-    <row r="627" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -38481,7 +38546,7 @@
       <c r="BF627" s="3"/>
       <c r="BG627" s="3"/>
     </row>
-    <row r="628" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -38542,7 +38607,7 @@
       <c r="BF628" s="3"/>
       <c r="BG628" s="3"/>
     </row>
-    <row r="629" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -38603,7 +38668,7 @@
       <c r="BF629" s="3"/>
       <c r="BG629" s="3"/>
     </row>
-    <row r="630" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -38664,7 +38729,7 @@
       <c r="BF630" s="3"/>
       <c r="BG630" s="3"/>
     </row>
-    <row r="631" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -38725,7 +38790,7 @@
       <c r="BF631" s="3"/>
       <c r="BG631" s="3"/>
     </row>
-    <row r="632" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -38786,7 +38851,7 @@
       <c r="BF632" s="3"/>
       <c r="BG632" s="3"/>
     </row>
-    <row r="633" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -38847,7 +38912,7 @@
       <c r="BF633" s="3"/>
       <c r="BG633" s="3"/>
     </row>
-    <row r="634" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -38908,7 +38973,7 @@
       <c r="BF634" s="3"/>
       <c r="BG634" s="3"/>
     </row>
-    <row r="635" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -38969,7 +39034,7 @@
       <c r="BF635" s="3"/>
       <c r="BG635" s="3"/>
     </row>
-    <row r="636" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -39030,7 +39095,7 @@
       <c r="BF636" s="3"/>
       <c r="BG636" s="3"/>
     </row>
-    <row r="637" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -39091,7 +39156,7 @@
       <c r="BF637" s="3"/>
       <c r="BG637" s="3"/>
     </row>
-    <row r="638" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -39152,7 +39217,7 @@
       <c r="BF638" s="3"/>
       <c r="BG638" s="3"/>
     </row>
-    <row r="639" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -39213,7 +39278,7 @@
       <c r="BF639" s="3"/>
       <c r="BG639" s="3"/>
     </row>
-    <row r="640" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -39274,7 +39339,7 @@
       <c r="BF640" s="3"/>
       <c r="BG640" s="3"/>
     </row>
-    <row r="641" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -39335,7 +39400,7 @@
       <c r="BF641" s="3"/>
       <c r="BG641" s="3"/>
     </row>
-    <row r="642" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -39396,7 +39461,7 @@
       <c r="BF642" s="3"/>
       <c r="BG642" s="3"/>
     </row>
-    <row r="643" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -39457,7 +39522,7 @@
       <c r="BF643" s="3"/>
       <c r="BG643" s="3"/>
     </row>
-    <row r="644" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -39518,7 +39583,7 @@
       <c r="BF644" s="3"/>
       <c r="BG644" s="3"/>
     </row>
-    <row r="645" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -39579,7 +39644,7 @@
       <c r="BF645" s="3"/>
       <c r="BG645" s="3"/>
     </row>
-    <row r="646" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -39640,7 +39705,7 @@
       <c r="BF646" s="3"/>
       <c r="BG646" s="3"/>
     </row>
-    <row r="647" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -39701,7 +39766,7 @@
       <c r="BF647" s="3"/>
       <c r="BG647" s="3"/>
     </row>
-    <row r="648" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -39762,7 +39827,7 @@
       <c r="BF648" s="3"/>
       <c r="BG648" s="3"/>
     </row>
-    <row r="649" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -39823,7 +39888,7 @@
       <c r="BF649" s="3"/>
       <c r="BG649" s="3"/>
     </row>
-    <row r="650" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -39884,7 +39949,7 @@
       <c r="BF650" s="3"/>
       <c r="BG650" s="3"/>
     </row>
-    <row r="651" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -39945,7 +40010,7 @@
       <c r="BF651" s="3"/>
       <c r="BG651" s="3"/>
     </row>
-    <row r="652" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -40006,7 +40071,7 @@
       <c r="BF652" s="3"/>
       <c r="BG652" s="3"/>
     </row>
-    <row r="653" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -40067,7 +40132,7 @@
       <c r="BF653" s="3"/>
       <c r="BG653" s="3"/>
     </row>
-    <row r="654" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -40128,7 +40193,7 @@
       <c r="BF654" s="3"/>
       <c r="BG654" s="3"/>
     </row>
-    <row r="655" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -40189,7 +40254,7 @@
       <c r="BF655" s="3"/>
       <c r="BG655" s="3"/>
     </row>
-    <row r="656" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -40250,7 +40315,7 @@
       <c r="BF656" s="3"/>
       <c r="BG656" s="3"/>
     </row>
-    <row r="657" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -40311,7 +40376,7 @@
       <c r="BF657" s="3"/>
       <c r="BG657" s="3"/>
     </row>
-    <row r="658" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -40372,7 +40437,7 @@
       <c r="BF658" s="3"/>
       <c r="BG658" s="3"/>
     </row>
-    <row r="659" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -40433,7 +40498,7 @@
       <c r="BF659" s="3"/>
       <c r="BG659" s="3"/>
     </row>
-    <row r="660" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -40494,7 +40559,7 @@
       <c r="BF660" s="3"/>
       <c r="BG660" s="3"/>
     </row>
-    <row r="661" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -40555,7 +40620,7 @@
       <c r="BF661" s="3"/>
       <c r="BG661" s="3"/>
     </row>
-    <row r="662" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -40616,7 +40681,7 @@
       <c r="BF662" s="3"/>
       <c r="BG662" s="3"/>
     </row>
-    <row r="663" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -40677,7 +40742,7 @@
       <c r="BF663" s="3"/>
       <c r="BG663" s="3"/>
     </row>
-    <row r="664" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -40738,7 +40803,7 @@
       <c r="BF664" s="3"/>
       <c r="BG664" s="3"/>
     </row>
-    <row r="665" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -40799,7 +40864,7 @@
       <c r="BF665" s="3"/>
       <c r="BG665" s="3"/>
     </row>
-    <row r="666" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -40860,7 +40925,7 @@
       <c r="BF666" s="3"/>
       <c r="BG666" s="3"/>
     </row>
-    <row r="667" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -40921,7 +40986,7 @@
       <c r="BF667" s="3"/>
       <c r="BG667" s="3"/>
     </row>
-    <row r="668" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -40982,7 +41047,7 @@
       <c r="BF668" s="3"/>
       <c r="BG668" s="3"/>
     </row>
-    <row r="669" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -41043,7 +41108,7 @@
       <c r="BF669" s="3"/>
       <c r="BG669" s="3"/>
     </row>
-    <row r="670" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -41104,7 +41169,7 @@
       <c r="BF670" s="3"/>
       <c r="BG670" s="3"/>
     </row>
-    <row r="671" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -41165,7 +41230,7 @@
       <c r="BF671" s="3"/>
       <c r="BG671" s="3"/>
     </row>
-    <row r="672" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -41226,7 +41291,7 @@
       <c r="BF672" s="3"/>
       <c r="BG672" s="3"/>
     </row>
-    <row r="673" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -41287,7 +41352,7 @@
       <c r="BF673" s="3"/>
       <c r="BG673" s="3"/>
     </row>
-    <row r="674" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -41348,7 +41413,7 @@
       <c r="BF674" s="3"/>
       <c r="BG674" s="3"/>
     </row>
-    <row r="675" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -41409,7 +41474,7 @@
       <c r="BF675" s="3"/>
       <c r="BG675" s="3"/>
     </row>
-    <row r="676" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -41470,7 +41535,7 @@
       <c r="BF676" s="3"/>
       <c r="BG676" s="3"/>
     </row>
-    <row r="677" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -41531,7 +41596,7 @@
       <c r="BF677" s="3"/>
       <c r="BG677" s="3"/>
     </row>
-    <row r="678" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -41592,7 +41657,7 @@
       <c r="BF678" s="3"/>
       <c r="BG678" s="3"/>
     </row>
-    <row r="679" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -41653,7 +41718,7 @@
       <c r="BF679" s="3"/>
       <c r="BG679" s="3"/>
     </row>
-    <row r="680" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -41714,7 +41779,7 @@
       <c r="BF680" s="3"/>
       <c r="BG680" s="3"/>
     </row>
-    <row r="681" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -41775,7 +41840,7 @@
       <c r="BF681" s="3"/>
       <c r="BG681" s="3"/>
     </row>
-    <row r="682" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -41836,7 +41901,7 @@
       <c r="BF682" s="3"/>
       <c r="BG682" s="3"/>
     </row>
-    <row r="683" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -41897,7 +41962,7 @@
       <c r="BF683" s="3"/>
       <c r="BG683" s="3"/>
     </row>
-    <row r="684" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -41958,7 +42023,7 @@
       <c r="BF684" s="3"/>
       <c r="BG684" s="3"/>
     </row>
-    <row r="685" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -42019,7 +42084,7 @@
       <c r="BF685" s="3"/>
       <c r="BG685" s="3"/>
     </row>
-    <row r="686" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -42080,7 +42145,7 @@
       <c r="BF686" s="3"/>
       <c r="BG686" s="3"/>
     </row>
-    <row r="687" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -42141,7 +42206,7 @@
       <c r="BF687" s="3"/>
       <c r="BG687" s="3"/>
     </row>
-    <row r="688" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -42202,7 +42267,7 @@
       <c r="BF688" s="3"/>
       <c r="BG688" s="3"/>
     </row>
-    <row r="689" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -42263,7 +42328,7 @@
       <c r="BF689" s="3"/>
       <c r="BG689" s="3"/>
     </row>
-    <row r="690" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -42324,7 +42389,7 @@
       <c r="BF690" s="3"/>
       <c r="BG690" s="3"/>
     </row>
-    <row r="691" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -42385,7 +42450,7 @@
       <c r="BF691" s="3"/>
       <c r="BG691" s="3"/>
     </row>
-    <row r="692" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -42446,7 +42511,7 @@
       <c r="BF692" s="3"/>
       <c r="BG692" s="3"/>
     </row>
-    <row r="693" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -42507,7 +42572,7 @@
       <c r="BF693" s="3"/>
       <c r="BG693" s="3"/>
     </row>
-    <row r="694" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -42568,7 +42633,7 @@
       <c r="BF694" s="3"/>
       <c r="BG694" s="3"/>
     </row>
-    <row r="695" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -42629,7 +42694,7 @@
       <c r="BF695" s="3"/>
       <c r="BG695" s="3"/>
     </row>
-    <row r="696" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -42690,7 +42755,7 @@
       <c r="BF696" s="3"/>
       <c r="BG696" s="3"/>
     </row>
-    <row r="697" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -42751,7 +42816,7 @@
       <c r="BF697" s="3"/>
       <c r="BG697" s="3"/>
     </row>
-    <row r="698" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -42812,7 +42877,7 @@
       <c r="BF698" s="3"/>
       <c r="BG698" s="3"/>
     </row>
-    <row r="699" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -42873,7 +42938,7 @@
       <c r="BF699" s="3"/>
       <c r="BG699" s="3"/>
     </row>
-    <row r="700" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -42934,7 +42999,7 @@
       <c r="BF700" s="3"/>
       <c r="BG700" s="3"/>
     </row>
-    <row r="701" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -42995,7 +43060,7 @@
       <c r="BF701" s="3"/>
       <c r="BG701" s="3"/>
     </row>
-    <row r="702" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -43057,10 +43122,11 @@
       <c r="BG702" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
